--- a/rasa_robot3/IVR.xlsx
+++ b/rasa_robot3/IVR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellintern\银行客服对话\rasa_robot2\rasa_robot2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellintern\银行客服对话\rasa\rasa_robot3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,7 +50,7 @@
     <author>娟娟2</author>
   </authors>
   <commentList>
-    <comment ref="G141" authorId="0" shapeId="0">
+    <comment ref="G138" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G142" authorId="0" shapeId="0">
+    <comment ref="G139" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="2462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="2479">
   <si>
     <r>
       <rPr>
@@ -9146,10 +9146,6 @@
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
-    <t>请问本次事故的受损金额是否已达到或超过人民币3000元？是请按^1，否请按^2</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
     <t>为了提升服务体验，现在为您转接人工，请稍等</t>
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
@@ -9158,10 +9154,6 @@
   </si>
   <si>
     <t>transfer</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊敬的客户，现在您可以通过自助渠道进行非车险报案。同意请按^1，转人工请按^2</t>
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
@@ -9186,10 +9178,6 @@
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
-    <t>自助</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>N</t>
     </r>
@@ -9260,31 +9248,6 @@
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
-    <t>选择人工还是自助</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>erviceType</t>
-    </r>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在为您转接人工，请稍等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
     <t>尊敬的客户，现在您可以通过自助渠道进行非车险案件进度查询。同意请按^1，转人工请按^2</t>
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
@@ -9306,23 +9269,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>peat</t>
-    </r>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nterrupt</t>
     </r>
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
@@ -9801,19 +9747,10 @@
     <t>针对标识下载，推荐您微信关注【华泰财险】公众号，点击理赔·服务、我的保单、全部保单，使用被保险人证件号、保单号或车牌号、手机号，三选二绑定保单。打开保单页面，右上点击更多、保险标志自助下载。详细操作方式已通过短信形式发送到您的手机，请您注意查收。</t>
   </si>
   <si>
-    <t>你们公司总部在哪里？
-你们华泰公司全称是什么？
-你是哪家公司/你们公司叫什么/是华泰保险吗</t>
-  </si>
-  <si>
     <t>车船税可以退吗</t>
   </si>
   <si>
     <t>车船税收费标准</t>
-  </si>
-  <si>
-    <t>电子保单怎么下载、
-保单下载、</t>
   </si>
   <si>
     <t>新车怎么上牌加牌、上牌自助批改</t>
@@ -9856,14 +9793,6 @@
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
-    <t>尊敬的客户，现在您可以通过自助渠道进行{business}。同意请按^1，转人工请按^2</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>{business}自助操作方式已通过短信方式发送到您的手机，请您注意查收。</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
     <t>请问您是车险保单信息查询还是非车险保单信息查询</t>
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
@@ -9877,6 +9806,114 @@
   </si>
   <si>
     <t>请问您还有别的问题需要查询的吗。您可以直接说出您要办理的业务，如^【某某业务】等。</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterId</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMessage</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，汽车环保标志由车管所发放。</t>
+  </si>
+  <si>
+    <t>您好，车险续保一般可提前3个月续保，但因各地监管政策不同，个别地区会有差异。建议您联系线下门店咨询。若您有其他疑问或要咨询我司其他产品，建议您转接人工服务。</t>
+  </si>
+  <si>
+    <t>没有环保标识</t>
+  </si>
+  <si>
+    <t>车险续保可以提前多久买</t>
+  </si>
+  <si>
+    <t>pause</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>非车退保时效、非车能否退保、非车退保咨询</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要申请报案</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要申请救援</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要退保</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>按错了、转回按键</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是人工吗、你是机器人是吗</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子保单怎么下载、保单下载</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们公司总部在哪里？、你们华泰公司全称是什么？、你是哪家公司、你们公司叫什么、是华泰保险吗</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用了、不需要、没有</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>别发短信直接说、直接说就行、没收到短信、报链接、救援卡是什么、帮我联系理赔员、案子谁负责、补材料、材料未上交、材料邮寄、误工费能不能赔、查看交了多少钱、保全批改、修改信息</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>非车险其他业务-健康险增值服务（关键字如重疾绿色通道、住院垫付等）、通用垫付</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用车船税</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>索要下载票据报告、纸质保单</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>非车投续保、通用投续保、投保意向</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>售前咨询、通用咨询</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>给我转人工、连线领导、不要自助</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要投诉、服务太差、曝光保监会、非法集资、对XXX不满意、客户骂人</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要申请非车险退保、其他产品退保、帮我退掉团体险</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要申请车险退保、退交强险、帮我退掉商业险</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用理赔、车险理赔、非车险理赔、理赔车险、理赔非车险</t>
     <phoneticPr fontId="49" type="noConversion"/>
   </si>
 </sst>
@@ -10675,7 +10712,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="507">
+  <cellXfs count="504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -11992,9 +12029,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -12007,22 +12041,25 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12034,19 +12071,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12062,51 +12135,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12160,6 +12188,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12169,16 +12206,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -20730,13 +20758,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -20790,11 +20818,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="57">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="451" t="s">
         <v>2345</v>
       </c>
       <c r="B3" s="442" t="s">
-        <v>2454</v>
+        <v>2445</v>
       </c>
       <c r="C3" s="429" t="s">
         <v>2345</v>
@@ -20809,14 +20837,14 @@
         <v>20</v>
       </c>
       <c r="G3" s="194"/>
-      <c r="H3" s="194" t="s">
-        <v>2346</v>
+      <c r="H3" s="429" t="s">
+        <v>2460</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="453"/>
-      <c r="B4" s="451" t="s">
-        <v>2455</v>
+      <c r="A4" s="452"/>
+      <c r="B4" s="454" t="s">
+        <v>2446</v>
       </c>
       <c r="C4" s="429" t="s">
         <v>2349</v>
@@ -20825,7 +20853,7 @@
         <v>2367</v>
       </c>
       <c r="E4" s="429" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="F4" s="194" t="s">
         <v>24</v>
@@ -20838,13 +20866,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="452"/>
+      <c r="A5" s="453"/>
       <c r="B5" s="450"/>
       <c r="C5" s="430" t="s">
         <v>2350</v>
       </c>
       <c r="D5" s="430" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="E5" s="430" t="s">
         <v>2368</v>
@@ -20858,11 +20886,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57">
-      <c r="A6" s="454" t="s">
+      <c r="A6" s="451" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="442" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="C6" s="429" t="s">
         <v>2351</v>
@@ -20877,12 +20905,12 @@
         <v>20</v>
       </c>
       <c r="G6" s="194"/>
-      <c r="H6" s="194" t="s">
-        <v>43</v>
+      <c r="H6" s="429" t="s">
+        <v>2461</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
-      <c r="A7" s="453"/>
+      <c r="A7" s="452"/>
       <c r="B7" s="449" t="s">
         <v>2355</v>
       </c>
@@ -20904,16 +20932,16 @@
       <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" ht="28.5">
-      <c r="A8" s="452"/>
+      <c r="A8" s="453"/>
       <c r="B8" s="450"/>
       <c r="C8" s="429" t="s">
         <v>2350</v>
       </c>
       <c r="D8" s="194" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E8" s="429" t="s">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="F8" s="194" t="s">
         <v>24</v>
@@ -20924,7 +20952,7 @@
       <c r="H8" s="194"/>
     </row>
     <row r="9" spans="1:8" ht="71.25">
-      <c r="A9" s="454" t="s">
+      <c r="A9" s="451" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="443" t="s">
@@ -20937,7 +20965,7 @@
         <v>2366</v>
       </c>
       <c r="E9" s="429" t="s">
-        <v>2458</v>
+        <v>2447</v>
       </c>
       <c r="F9" s="194" t="s">
         <v>54</v>
@@ -20950,7 +20978,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="42.75">
-      <c r="A10" s="453"/>
+      <c r="A10" s="452"/>
       <c r="B10" s="449" t="s">
         <v>2355</v>
       </c>
@@ -20958,10 +20986,10 @@
         <v>2349</v>
       </c>
       <c r="D10" s="429" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="E10" s="431" t="s">
-        <v>2460</v>
+        <v>2449</v>
       </c>
       <c r="F10" s="194" t="s">
         <v>37</v>
@@ -20972,13 +21000,13 @@
       <c r="H10" s="194"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="453"/>
+      <c r="A11" s="452"/>
       <c r="B11" s="449"/>
       <c r="C11" s="429" t="s">
         <v>2350</v>
       </c>
       <c r="D11" s="429" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="E11" s="287" t="s">
         <v>57</v>
@@ -20992,13 +21020,13 @@
       <c r="H11" s="194"/>
     </row>
     <row r="12" spans="1:8" ht="42.75">
-      <c r="A12" s="452"/>
+      <c r="A12" s="453"/>
       <c r="B12" s="450"/>
       <c r="C12" s="429" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="D12" s="429" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="E12" s="287" t="s">
         <v>62</v>
@@ -21014,7 +21042,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="71.25">
-      <c r="A13" s="454" t="s">
+      <c r="A13" s="451" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="437" t="s">
@@ -21024,7 +21052,7 @@
         <v>2353</v>
       </c>
       <c r="D13" s="429" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="E13" s="194" t="s">
         <v>68</v>
@@ -21038,7 +21066,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="42.75">
-      <c r="A14" s="453"/>
+      <c r="A14" s="452"/>
       <c r="B14" s="449" t="s">
         <v>2355</v>
       </c>
@@ -21046,7 +21074,7 @@
         <v>2349</v>
       </c>
       <c r="D14" s="429" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="E14" s="287" t="s">
         <v>71</v>
@@ -21060,16 +21088,16 @@
       <c r="H14" s="194"/>
     </row>
     <row r="15" spans="1:8" ht="42.75">
-      <c r="A15" s="453"/>
+      <c r="A15" s="452"/>
       <c r="B15" s="449"/>
       <c r="C15" s="429" t="s">
         <v>2350</v>
       </c>
       <c r="D15" s="429" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="E15" s="431" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="F15" s="194" t="s">
         <v>37</v>
@@ -21079,14 +21107,14 @@
       </c>
       <c r="H15" s="194"/>
     </row>
-    <row r="16" spans="1:8" ht="42.75">
-      <c r="A16" s="452"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A16" s="453"/>
       <c r="B16" s="450"/>
       <c r="C16" s="429" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="D16" s="429" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="E16" s="287" t="s">
         <v>75</v>
@@ -21101,43 +21129,43 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="57">
+    <row r="17" spans="1:10" ht="57">
       <c r="A17" s="455" t="s">
         <v>244</v>
       </c>
       <c r="B17" s="432" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="C17" s="430" t="s">
         <v>2354</v>
       </c>
       <c r="D17" s="430" t="s">
-        <v>2383</v>
+        <v>2451</v>
       </c>
       <c r="E17" s="430" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="F17" s="424" t="s">
         <v>247</v>
       </c>
       <c r="G17" s="248"/>
-      <c r="H17" s="248" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1">
+      <c r="H17" s="430" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.5">
       <c r="A18" s="456"/>
       <c r="B18" s="455" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="C18" s="431" t="s">
         <v>2349</v>
       </c>
       <c r="D18" s="431" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E18" s="431" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="F18" s="287" t="s">
         <v>24</v>
@@ -21145,18 +21173,18 @@
       <c r="G18" s="287" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="287" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="57">
+      <c r="H18" s="431" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="57">
       <c r="A19" s="457"/>
       <c r="B19" s="457"/>
       <c r="C19" s="431" t="s">
         <v>2350</v>
       </c>
       <c r="D19" s="431" t="s">
-        <v>2383</v>
+        <v>2451</v>
       </c>
       <c r="E19" s="287" t="s">
         <v>98</v>
@@ -21165,142 +21193,166 @@
         <v>99</v>
       </c>
       <c r="G19" s="287"/>
-      <c r="H19" s="287" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="42.75">
-      <c r="A20" s="458" t="s">
+      <c r="H19" s="431" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.5">
+      <c r="A20" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="429" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C20" s="429" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D20" s="429" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E20" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="194" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="429" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C21" s="429" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D21" s="429" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E21" s="194" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="429" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="429" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C22" s="429" t="s">
         <v>2385</v>
       </c>
-      <c r="B20" s="444" t="s">
-        <v>2374</v>
-      </c>
-      <c r="C20" s="431" t="s">
-        <v>2385</v>
-      </c>
-      <c r="D20" s="431" t="s">
-        <v>2374</v>
-      </c>
-      <c r="E20" s="431" t="s">
-        <v>2456</v>
-      </c>
-      <c r="F20" s="287"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="287"/>
-    </row>
-    <row r="21" spans="1:8" ht="42.75">
-      <c r="A21" s="459"/>
-      <c r="B21" s="458" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C21" s="431">
-        <v>1</v>
-      </c>
-      <c r="D21" s="431" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E21" s="431" t="s">
-        <v>2457</v>
-      </c>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="460"/>
-      <c r="B22" s="460"/>
-      <c r="C22" s="431">
-        <v>2</v>
-      </c>
-      <c r="D22" s="431" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E22" s="431" t="s">
-        <v>2387</v>
-      </c>
-      <c r="F22" s="287"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="287"/>
-    </row>
-    <row r="23" spans="1:8" ht="28.5">
+      <c r="D22" s="429" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="42.75">
       <c r="A23" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B23" s="429" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="C23" s="429" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="D23" s="429" t="s">
-        <v>2383</v>
+        <v>2371</v>
       </c>
       <c r="E23" s="194" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="194"/>
+        <v>23</v>
+      </c>
+      <c r="F23" s="194" t="s">
+        <v>24</v>
+      </c>
       <c r="G23" s="194" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="194" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="H23" s="429" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.5">
       <c r="A24" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B24" s="429" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="C24" s="429" t="s">
-        <v>2364</v>
+        <v>2389</v>
       </c>
       <c r="D24" s="429" t="s">
-        <v>2383</v>
+        <v>2371</v>
       </c>
       <c r="E24" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
+        <v>23</v>
+      </c>
+      <c r="F24" s="194" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="194" t="s">
+        <v>49</v>
+      </c>
       <c r="H24" s="429" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.5">
       <c r="A25" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B25" s="429" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="C25" s="429" t="s">
         <v>2392</v>
       </c>
       <c r="D25" s="429" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="42.75">
+        <v>2371</v>
+      </c>
+      <c r="E25" s="194" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="194" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="194" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="429" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="409" customFormat="1" ht="28.5">
       <c r="A26" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="429" t="s">
-        <v>2395</v>
+        <v>2414</v>
       </c>
       <c r="C26" s="429" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D26" s="429" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E26" s="194" t="s">
         <v>23</v>
@@ -21312,21 +21364,21 @@
         <v>49</v>
       </c>
       <c r="H26" s="429" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.5">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.5">
       <c r="A27" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="429" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C27" s="429" t="s">
-        <v>2396</v>
+        <v>2415</v>
+      </c>
+      <c r="C27" s="431" t="s">
+        <v>2413</v>
       </c>
       <c r="D27" s="429" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E27" s="194" t="s">
         <v>23</v>
@@ -21337,22 +21389,22 @@
       <c r="G27" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="429" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.5">
+      <c r="H27" s="431" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B28" s="429" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="C28" s="429" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="D28" s="429" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E28" s="194" t="s">
         <v>23</v>
@@ -21363,22 +21415,22 @@
       <c r="G28" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="194" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.5">
+      <c r="H28" s="429" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="44.25" customHeight="1">
       <c r="A29" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B29" s="429" t="s">
-        <v>2421</v>
+        <v>2397</v>
       </c>
       <c r="C29" s="429" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="D29" s="429" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E29" s="194" t="s">
         <v>23</v>
@@ -21389,22 +21441,22 @@
       <c r="G29" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="194" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="42.75">
+      <c r="H29" s="429" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.5">
       <c r="A30" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B30" s="429" t="s">
-        <v>2422</v>
-      </c>
-      <c r="C30" s="431" t="s">
-        <v>2420</v>
+        <v>2399</v>
+      </c>
+      <c r="C30" s="429" t="s">
+        <v>2398</v>
       </c>
       <c r="D30" s="429" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E30" s="194" t="s">
         <v>23</v>
@@ -21415,22 +21467,22 @@
       <c r="G30" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="287" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="409" customFormat="1" ht="28.5">
+      <c r="H30" s="429" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="57">
       <c r="A31" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="429" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C31" s="429" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D31" s="429" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E31" s="194" t="s">
         <v>23</v>
@@ -21442,21 +21494,21 @@
         <v>49</v>
       </c>
       <c r="H31" s="429" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="42.75">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="114">
       <c r="A32" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B32" s="429" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C32" s="429" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D32" s="429" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E32" s="194" t="s">
         <v>23</v>
@@ -21468,36 +21520,36 @@
         <v>49</v>
       </c>
       <c r="H32" s="429" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="28.5">
+        <v>2468</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="25.5" customHeight="1">
       <c r="A33" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="429" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C33" s="429" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D33" s="429" t="s">
         <v>2406</v>
       </c>
-      <c r="C33" s="429" t="s">
-        <v>2405</v>
-      </c>
-      <c r="D33" s="429" t="s">
-        <v>2372</v>
-      </c>
       <c r="E33" s="194" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="F33" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="194" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="44.25" customHeight="1">
+        <v>141</v>
+      </c>
+      <c r="G33" s="194"/>
+      <c r="H33" s="429" t="s">
+        <v>2467</v>
+      </c>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="51">
       <c r="A34" s="194" t="s">
         <v>110</v>
       </c>
@@ -21508,22 +21560,19 @@
         <v>2407</v>
       </c>
       <c r="D34" s="429" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E34" s="194" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="194" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="99.75">
+        <v>2380</v>
+      </c>
+      <c r="E34" s="235" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F34" s="417"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="448" t="s">
+        <v>2466</v>
+      </c>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="28.5">
       <c r="A35" s="194" t="s">
         <v>110</v>
       </c>
@@ -21534,22 +21583,19 @@
         <v>2409</v>
       </c>
       <c r="D35" s="429" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E35" s="194" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="194" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="28.5">
+        <v>2380</v>
+      </c>
+      <c r="E35" s="429" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="429" t="s">
+        <v>2464</v>
+      </c>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="42.75">
       <c r="A36" s="194" t="s">
         <v>110</v>
       </c>
@@ -21560,268 +21606,254 @@
         <v>2411</v>
       </c>
       <c r="D36" s="429" t="s">
-        <v>2413</v>
-      </c>
-      <c r="E36" s="194" t="s">
-        <v>140</v>
+        <v>2452</v>
+      </c>
+      <c r="E36" s="429" t="s">
+        <v>2423</v>
       </c>
       <c r="F36" s="194" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G36" s="194"/>
-      <c r="H36" s="194" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="51">
+      <c r="H36" s="429" t="s">
+        <v>2463</v>
+      </c>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="102">
       <c r="A37" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B37" s="429" t="s">
-        <v>2415</v>
-      </c>
-      <c r="C37" s="429" t="s">
-        <v>2414</v>
+        <v>2416</v>
+      </c>
+      <c r="C37" s="444" t="s">
+        <v>2417</v>
       </c>
       <c r="D37" s="429" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="E37" s="235" t="s">
-        <v>2441</v>
-      </c>
-      <c r="F37" s="417"/>
+        <v>2435</v>
+      </c>
+      <c r="F37" s="194"/>
       <c r="G37" s="194"/>
-      <c r="H37" s="235" t="s">
-        <v>2448</v>
+      <c r="H37" s="420" t="s">
+        <v>1888</v>
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="25.5" customHeight="1">
+    <row r="38" spans="1:10" ht="25.5">
       <c r="A38" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="429" t="s">
-        <v>2417</v>
-      </c>
-      <c r="C38" s="429" t="s">
-        <v>2416</v>
+      <c r="B38" s="194" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C38" s="445" t="s">
+        <v>2418</v>
       </c>
       <c r="D38" s="429" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E38" s="429" t="s">
-        <v>2429</v>
+        <v>2380</v>
+      </c>
+      <c r="E38" s="235" t="s">
+        <v>2436</v>
       </c>
       <c r="F38" s="194"/>
       <c r="G38" s="194"/>
-      <c r="H38" s="194" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" ht="42.75">
+      <c r="H38" s="235" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="51">
       <c r="A39" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B39" s="429" t="s">
-        <v>2419</v>
-      </c>
-      <c r="C39" s="429" t="s">
-        <v>2418</v>
+        <v>2421</v>
+      </c>
+      <c r="C39" s="445" t="s">
+        <v>2420</v>
       </c>
       <c r="D39" s="429" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E39" s="429" t="s">
-        <v>2430</v>
-      </c>
-      <c r="F39" s="194" t="s">
-        <v>149</v>
-      </c>
+        <v>2380</v>
+      </c>
+      <c r="E39" s="235" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F39" s="194"/>
       <c r="G39" s="194"/>
-      <c r="H39" s="194" t="s">
-        <v>147</v>
-      </c>
-      <c r="J39"/>
+      <c r="H39" s="235" t="s">
+        <v>2442</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="102">
       <c r="A40" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B40" s="429" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C40" s="445" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C40" s="446" t="s">
         <v>2424</v>
       </c>
       <c r="D40" s="429" t="s">
-        <v>2383</v>
+        <v>2453</v>
       </c>
       <c r="E40" s="235" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="420" t="s">
-        <v>1888</v>
-      </c>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" ht="25.5">
+      <c r="G40" s="194" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="503" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="89.25">
       <c r="A41" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="194" t="s">
+      <c r="B41" s="429" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C41" s="447" t="s">
         <v>2426</v>
       </c>
-      <c r="C41" s="446" t="s">
-        <v>2425</v>
-      </c>
       <c r="D41" s="429" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E41" s="235" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E41" s="448" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="235" t="s">
         <v>2443</v>
       </c>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="235" t="s">
-        <v>2449</v>
-      </c>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" ht="51">
+    </row>
+    <row r="42" spans="1:10" ht="102">
       <c r="A42" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B42" s="429" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C42" s="447" t="s">
         <v>2428</v>
       </c>
-      <c r="C42" s="446" t="s">
-        <v>2427</v>
-      </c>
       <c r="D42" s="429" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E42" s="235" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E42" s="448" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="235" t="s">
         <v>2444</v>
       </c>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="235" t="s">
-        <v>2450</v>
-      </c>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" ht="102">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="429" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C43" s="447" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D43" s="429" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="E43" s="235" t="s">
-        <v>2445</v>
+        <v>2454</v>
       </c>
       <c r="F43" s="194"/>
-      <c r="G43" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="420" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="89.25">
+      <c r="G43" s="194"/>
+      <c r="H43" s="235" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="63.75">
       <c r="A44" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B44" s="429" t="s">
-        <v>2434</v>
-      </c>
-      <c r="C44" s="448" t="s">
         <v>2433</v>
       </c>
+      <c r="C44" s="447" t="s">
+        <v>2432</v>
+      </c>
       <c r="D44" s="429" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E44" s="506" t="s">
-        <v>2446</v>
+        <v>2380</v>
+      </c>
+      <c r="E44" s="235" t="s">
+        <v>2455</v>
       </c>
       <c r="F44" s="194"/>
-      <c r="G44" s="194" t="s">
-        <v>64</v>
-      </c>
+      <c r="G44" s="194"/>
       <c r="H44" s="235" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="102">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="25.5">
       <c r="A45" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="429" t="s">
-        <v>2436</v>
-      </c>
-      <c r="C45" s="448" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D45" s="429" t="s">
-        <v>2383</v>
-      </c>
-      <c r="E45" s="506" t="s">
-        <v>2447</v>
+      <c r="B45" s="194"/>
+      <c r="C45" s="242" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="194"/>
+      <c r="E45" s="235" t="e">
+        <f>VLOOKUP(#REF!,[1]FAQ!$C:$F,4,0)</f>
+        <v>#REF!</v>
       </c>
       <c r="F45" s="194"/>
-      <c r="G45" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="235" t="s">
-        <v>2453</v>
+      <c r="G45" s="194"/>
+      <c r="H45" s="235" t="e">
+        <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="429" t="s">
-        <v>2438</v>
-      </c>
-      <c r="C46" s="448" t="s">
-        <v>2437</v>
-      </c>
-      <c r="D46" s="429" t="s">
-        <v>2383</v>
-      </c>
+      <c r="B46" s="194"/>
+      <c r="C46" s="242" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="194"/>
       <c r="E46" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$F,4,0)</f>
         <v>#REF!</v>
       </c>
       <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
+      <c r="G46" s="194" t="s">
+        <v>64</v>
+      </c>
       <c r="H46" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="63.75">
+    <row r="47" spans="1:10" ht="25.5">
       <c r="A47" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="429" t="s">
-        <v>2440</v>
-      </c>
-      <c r="C47" s="448" t="s">
-        <v>2439</v>
-      </c>
-      <c r="D47" s="429" t="s">
-        <v>2383</v>
-      </c>
+      <c r="B47" s="194"/>
+      <c r="C47" s="242" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="194"/>
       <c r="E47" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$F,4,0)</f>
         <v>#REF!</v>
@@ -21839,7 +21871,7 @@
       </c>
       <c r="B48" s="194"/>
       <c r="C48" s="242" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D48" s="194"/>
       <c r="E48" s="235" t="e">
@@ -21853,13 +21885,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="102">
+    <row r="49" spans="1:8" ht="25.5">
       <c r="A49" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="194"/>
       <c r="C49" s="242" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D49" s="194"/>
       <c r="E49" s="235" t="e">
@@ -21867,21 +21899,19 @@
         <v>#REF!</v>
       </c>
       <c r="F49" s="194"/>
-      <c r="G49" s="194" t="s">
-        <v>64</v>
-      </c>
+      <c r="G49" s="194"/>
       <c r="H49" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="76.5">
+    <row r="50" spans="1:8" ht="25.5">
       <c r="A50" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B50" s="194"/>
       <c r="C50" s="242" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D50" s="194"/>
       <c r="E50" s="235" t="e">
@@ -21895,13 +21925,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="63.75">
+    <row r="51" spans="1:8" ht="25.5">
       <c r="A51" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B51" s="194"/>
       <c r="C51" s="242" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D51" s="194"/>
       <c r="E51" s="235" t="e">
@@ -21915,13 +21945,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="76.5">
+    <row r="52" spans="1:8" ht="25.5">
       <c r="A52" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B52" s="194"/>
-      <c r="C52" s="242" t="s">
-        <v>162</v>
+      <c r="C52" s="275" t="s">
+        <v>165</v>
       </c>
       <c r="D52" s="194"/>
       <c r="E52" s="235" t="e">
@@ -21935,13 +21965,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="102">
+    <row r="53" spans="1:8" ht="25.5">
       <c r="A53" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B53" s="194"/>
       <c r="C53" s="242" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="194"/>
       <c r="E53" s="235" t="e">
@@ -21955,13 +21985,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="76.5">
+    <row r="54" spans="1:8" ht="25.5">
       <c r="A54" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="194"/>
       <c r="C54" s="242" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D54" s="194"/>
       <c r="E54" s="235" t="e">
@@ -21975,13 +22005,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="38.25">
+    <row r="55" spans="1:8" ht="25.5">
       <c r="A55" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B55" s="194"/>
-      <c r="C55" s="275" t="s">
-        <v>165</v>
+      <c r="C55" s="242" t="s">
+        <v>168</v>
       </c>
       <c r="D55" s="194"/>
       <c r="E55" s="235" t="e">
@@ -22001,7 +22031,7 @@
       </c>
       <c r="B56" s="194"/>
       <c r="C56" s="242" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="194"/>
       <c r="E56" s="235" t="e">
@@ -22015,13 +22045,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="63.75">
+    <row r="57" spans="1:8" ht="25.5">
       <c r="A57" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="194"/>
       <c r="C57" s="242" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="194"/>
       <c r="E57" s="235" t="e">
@@ -22035,13 +22065,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="63.75">
+    <row r="58" spans="1:8" ht="25.5">
       <c r="A58" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B58" s="194"/>
       <c r="C58" s="242" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="194"/>
       <c r="E58" s="235" t="e">
@@ -22055,13 +22085,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="153">
+    <row r="59" spans="1:8">
       <c r="A59" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B59" s="194"/>
       <c r="C59" s="242" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="194"/>
       <c r="E59" s="235" t="e">
@@ -22075,13 +22105,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="63.75">
+    <row r="60" spans="1:8" ht="25.5">
       <c r="A60" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="194"/>
       <c r="C60" s="242" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="194"/>
       <c r="E60" s="235" t="e">
@@ -22095,13 +22125,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="51">
+    <row r="61" spans="1:8" ht="25.5">
       <c r="A61" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B61" s="194"/>
       <c r="C61" s="242" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D61" s="194"/>
       <c r="E61" s="235" t="e">
@@ -22115,13 +22145,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="127.5">
+    <row r="62" spans="1:8" ht="25.5">
       <c r="A62" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B62" s="194"/>
-      <c r="C62" s="242" t="s">
-        <v>172</v>
+      <c r="C62" s="275" t="s">
+        <v>175</v>
       </c>
       <c r="D62" s="194"/>
       <c r="E62" s="235" t="e">
@@ -22140,8 +22170,8 @@
         <v>110</v>
       </c>
       <c r="B63" s="194"/>
-      <c r="C63" s="242" t="s">
-        <v>173</v>
+      <c r="C63" s="275" t="s">
+        <v>176</v>
       </c>
       <c r="D63" s="194"/>
       <c r="E63" s="235" t="e">
@@ -22155,13 +22185,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="89.25">
+    <row r="64" spans="1:8" ht="25.5">
       <c r="A64" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B64" s="194"/>
       <c r="C64" s="242" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D64" s="194"/>
       <c r="E64" s="235" t="e">
@@ -22175,13 +22205,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="89.25">
+    <row r="65" spans="1:8" ht="25.5">
       <c r="A65" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B65" s="194"/>
-      <c r="C65" s="275" t="s">
-        <v>175</v>
+      <c r="C65" s="242" t="s">
+        <v>178</v>
       </c>
       <c r="D65" s="194"/>
       <c r="E65" s="235" t="e">
@@ -22200,8 +22230,8 @@
         <v>110</v>
       </c>
       <c r="B66" s="194"/>
-      <c r="C66" s="275" t="s">
-        <v>176</v>
+      <c r="C66" s="242" t="s">
+        <v>179</v>
       </c>
       <c r="D66" s="194"/>
       <c r="E66" s="235" t="e">
@@ -22221,7 +22251,7 @@
       </c>
       <c r="B67" s="194"/>
       <c r="C67" s="242" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D67" s="194"/>
       <c r="E67" s="235" t="e">
@@ -22235,13 +22265,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="38.25">
+    <row r="68" spans="1:8" ht="25.5">
       <c r="A68" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B68" s="194"/>
-      <c r="C68" s="242" t="s">
-        <v>178</v>
+      <c r="C68" s="419" t="s">
+        <v>181</v>
       </c>
       <c r="D68" s="194"/>
       <c r="E68" s="235" t="e">
@@ -22250,7 +22280,7 @@
       </c>
       <c r="F68" s="194"/>
       <c r="G68" s="194"/>
-      <c r="H68" s="235" t="e">
+      <c r="H68" s="420" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
@@ -22261,7 +22291,7 @@
       </c>
       <c r="B69" s="194"/>
       <c r="C69" s="242" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D69" s="194"/>
       <c r="E69" s="235" t="e">
@@ -22275,13 +22305,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="38.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B70" s="194"/>
       <c r="C70" s="242" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D70" s="194"/>
       <c r="E70" s="235" t="e">
@@ -22289,19 +22319,21 @@
         <v>#REF!</v>
       </c>
       <c r="F70" s="194"/>
-      <c r="G70" s="194"/>
+      <c r="G70" s="194" t="s">
+        <v>64</v>
+      </c>
       <c r="H70" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="76.5">
+    <row r="71" spans="1:8" ht="25.5">
       <c r="A71" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B71" s="194"/>
-      <c r="C71" s="419" t="s">
-        <v>181</v>
+      <c r="C71" s="242" t="s">
+        <v>184</v>
       </c>
       <c r="D71" s="194"/>
       <c r="E71" s="235" t="e">
@@ -22310,18 +22342,18 @@
       </c>
       <c r="F71" s="194"/>
       <c r="G71" s="194"/>
-      <c r="H71" s="420" t="e">
+      <c r="H71" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="51">
+    <row r="72" spans="1:8" ht="25.5">
       <c r="A72" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B72" s="194"/>
       <c r="C72" s="242" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D72" s="194"/>
       <c r="E72" s="235" t="e">
@@ -22335,13 +22367,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="89.25">
+    <row r="73" spans="1:8" ht="25.5">
       <c r="A73" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B73" s="194"/>
       <c r="C73" s="242" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D73" s="194"/>
       <c r="E73" s="235" t="e">
@@ -22349,21 +22381,19 @@
         <v>#REF!</v>
       </c>
       <c r="F73" s="194"/>
-      <c r="G73" s="194" t="s">
-        <v>64</v>
-      </c>
+      <c r="G73" s="194"/>
       <c r="H73" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="102">
+    <row r="74" spans="1:8" ht="25.5">
       <c r="A74" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="194"/>
       <c r="C74" s="242" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D74" s="194"/>
       <c r="E74" s="235" t="e">
@@ -22377,13 +22407,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="51">
+    <row r="75" spans="1:8" ht="25.5">
       <c r="A75" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B75" s="194"/>
       <c r="C75" s="242" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D75" s="194"/>
       <c r="E75" s="235" t="e">
@@ -22397,13 +22427,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="76.5">
+    <row r="76" spans="1:8" ht="25.5">
       <c r="A76" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="194"/>
       <c r="C76" s="242" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D76" s="194"/>
       <c r="E76" s="235" t="e">
@@ -22417,13 +22447,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="38.25">
+    <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B77" s="194"/>
       <c r="C77" s="242" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D77" s="194"/>
       <c r="E77" s="235" t="e">
@@ -22437,13 +22467,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="89.25">
+    <row r="78" spans="1:8" ht="25.5">
       <c r="A78" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B78" s="194"/>
       <c r="C78" s="242" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D78" s="194"/>
       <c r="E78" s="235" t="e">
@@ -22457,13 +22487,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="76.5">
+    <row r="79" spans="1:8" ht="25.5">
       <c r="A79" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B79" s="194"/>
       <c r="C79" s="242" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D79" s="194"/>
       <c r="E79" s="235" t="e">
@@ -22477,13 +22507,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="165.75">
+    <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B80" s="194"/>
       <c r="C80" s="242" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D80" s="194"/>
       <c r="E80" s="235" t="e">
@@ -22497,13 +22527,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="76.5">
+    <row r="81" spans="1:8" ht="25.5">
       <c r="A81" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B81" s="194"/>
       <c r="C81" s="242" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D81" s="194"/>
       <c r="E81" s="235" t="e">
@@ -22517,13 +22547,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="102">
+    <row r="82" spans="1:8" ht="25.5">
       <c r="A82" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B82" s="194"/>
       <c r="C82" s="242" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D82" s="194"/>
       <c r="E82" s="235" t="e">
@@ -22537,13 +22567,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="114.75">
+    <row r="83" spans="1:8" ht="25.5">
       <c r="A83" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B83" s="194"/>
       <c r="C83" s="242" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D83" s="194"/>
       <c r="E83" s="235" t="e">
@@ -22557,13 +22587,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="76.5">
+    <row r="84" spans="1:8" ht="25.5">
       <c r="A84" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B84" s="194"/>
       <c r="C84" s="242" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D84" s="194"/>
       <c r="E84" s="235" t="e">
@@ -22577,13 +22607,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="76.5">
+    <row r="85" spans="1:8" ht="25.5">
       <c r="A85" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B85" s="194"/>
       <c r="C85" s="242" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D85" s="194"/>
       <c r="E85" s="235" t="e">
@@ -22597,13 +22627,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="153">
+    <row r="86" spans="1:8" ht="25.5">
       <c r="A86" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B86" s="194"/>
       <c r="C86" s="242" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D86" s="194"/>
       <c r="E86" s="235" t="e">
@@ -22617,13 +22647,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="153">
+    <row r="87" spans="1:8" ht="25.5">
       <c r="A87" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B87" s="194"/>
       <c r="C87" s="242" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D87" s="194"/>
       <c r="E87" s="235" t="e">
@@ -22637,13 +22667,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="178.5">
+    <row r="88" spans="1:8" ht="25.5">
       <c r="A88" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B88" s="194"/>
       <c r="C88" s="242" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D88" s="194"/>
       <c r="E88" s="235" t="e">
@@ -22657,13 +22687,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="153">
+    <row r="89" spans="1:8" ht="25.5">
       <c r="A89" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B89" s="194"/>
       <c r="C89" s="242" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D89" s="194"/>
       <c r="E89" s="235" t="e">
@@ -22677,13 +22707,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="165.75">
+    <row r="90" spans="1:8" ht="25.5">
       <c r="A90" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B90" s="194"/>
       <c r="C90" s="242" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D90" s="194"/>
       <c r="E90" s="235" t="e">
@@ -22697,13 +22727,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="153">
+    <row r="91" spans="1:8" ht="25.5">
       <c r="A91" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B91" s="194"/>
       <c r="C91" s="242" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D91" s="194"/>
       <c r="E91" s="235" t="e">
@@ -22717,13 +22747,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="51">
+    <row r="92" spans="1:8" ht="25.5">
       <c r="A92" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B92" s="194"/>
       <c r="C92" s="242" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D92" s="194"/>
       <c r="E92" s="235" t="e">
@@ -22737,13 +22767,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="51">
+    <row r="93" spans="1:8" ht="25.5">
       <c r="A93" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B93" s="194"/>
       <c r="C93" s="242" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D93" s="194"/>
       <c r="E93" s="235" t="e">
@@ -22757,13 +22787,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="51">
+    <row r="94" spans="1:8" ht="25.5">
       <c r="A94" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B94" s="194"/>
       <c r="C94" s="242" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D94" s="194"/>
       <c r="E94" s="235" t="e">
@@ -22777,13 +22807,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="102">
+    <row r="95" spans="1:8" ht="25.5">
       <c r="A95" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B95" s="194"/>
       <c r="C95" s="242" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D95" s="194"/>
       <c r="E95" s="235" t="e">
@@ -22797,13 +22827,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="63.75">
+    <row r="96" spans="1:8" ht="25.5">
       <c r="A96" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B96" s="194"/>
       <c r="C96" s="242" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D96" s="194"/>
       <c r="E96" s="235" t="e">
@@ -22817,13 +22847,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="51">
+    <row r="97" spans="1:8" ht="25.5">
       <c r="A97" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B97" s="194"/>
       <c r="C97" s="242" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D97" s="194"/>
       <c r="E97" s="235" t="e">
@@ -22843,7 +22873,7 @@
       </c>
       <c r="B98" s="194"/>
       <c r="C98" s="242" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D98" s="194"/>
       <c r="E98" s="235" t="e">
@@ -22857,13 +22887,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="63.75">
+    <row r="99" spans="1:8" ht="25.5">
       <c r="A99" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B99" s="194"/>
       <c r="C99" s="242" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D99" s="194"/>
       <c r="E99" s="235" t="e">
@@ -22877,13 +22907,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="51">
+    <row r="100" spans="1:8" ht="25.5">
       <c r="A100" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="194"/>
       <c r="C100" s="242" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D100" s="194"/>
       <c r="E100" s="235" t="e">
@@ -22903,7 +22933,7 @@
       </c>
       <c r="B101" s="194"/>
       <c r="C101" s="242" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D101" s="194"/>
       <c r="E101" s="235" t="e">
@@ -22911,19 +22941,21 @@
         <v>#REF!</v>
       </c>
       <c r="F101" s="194"/>
-      <c r="G101" s="194"/>
+      <c r="G101" s="194" t="s">
+        <v>64</v>
+      </c>
       <c r="H101" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="38.25">
+    <row r="102" spans="1:8" ht="25.5">
       <c r="A102" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B102" s="194"/>
       <c r="C102" s="242" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D102" s="194"/>
       <c r="E102" s="235" t="e">
@@ -22937,13 +22969,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="114.75">
+    <row r="103" spans="1:8" ht="25.5">
       <c r="A103" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="194"/>
       <c r="C103" s="242" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D103" s="194"/>
       <c r="E103" s="235" t="e">
@@ -22957,13 +22989,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="89.25">
+    <row r="104" spans="1:8" ht="25.5">
       <c r="A104" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="194"/>
       <c r="C104" s="242" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D104" s="194"/>
       <c r="E104" s="235" t="e">
@@ -22971,21 +23003,19 @@
         <v>#REF!</v>
       </c>
       <c r="F104" s="194"/>
-      <c r="G104" s="194" t="s">
-        <v>64</v>
-      </c>
+      <c r="G104" s="194"/>
       <c r="H104" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="38.25">
+    <row r="105" spans="1:8" ht="25.5">
       <c r="A105" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B105" s="194"/>
       <c r="C105" s="242" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D105" s="194"/>
       <c r="E105" s="235" t="e">
@@ -22993,7 +23023,9 @@
         <v>#REF!</v>
       </c>
       <c r="F105" s="194"/>
-      <c r="G105" s="194"/>
+      <c r="G105" s="194" t="s">
+        <v>64</v>
+      </c>
       <c r="H105" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
@@ -23005,7 +23037,7 @@
       </c>
       <c r="B106" s="194"/>
       <c r="C106" s="242" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D106" s="194"/>
       <c r="E106" s="235" t="e">
@@ -23025,7 +23057,7 @@
       </c>
       <c r="B107" s="194"/>
       <c r="C107" s="242" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D107" s="194"/>
       <c r="E107" s="235" t="e">
@@ -23039,13 +23071,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="127.5">
+    <row r="108" spans="1:8" ht="25.5">
       <c r="A108" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="194"/>
       <c r="C108" s="242" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D108" s="194"/>
       <c r="E108" s="235" t="e">
@@ -23053,21 +23085,19 @@
         <v>#REF!</v>
       </c>
       <c r="F108" s="194"/>
-      <c r="G108" s="194" t="s">
-        <v>64</v>
-      </c>
+      <c r="G108" s="194"/>
       <c r="H108" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="51">
+    <row r="109" spans="1:8" ht="25.5">
       <c r="A109" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="194"/>
       <c r="C109" s="242" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D109" s="194"/>
       <c r="E109" s="235" t="e">
@@ -23081,13 +23111,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="38.25">
+    <row r="110" spans="1:8" ht="25.5">
       <c r="A110" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="194"/>
       <c r="C110" s="242" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D110" s="194"/>
       <c r="E110" s="235" t="e">
@@ -23101,13 +23131,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="38.25">
+    <row r="111" spans="1:8" ht="25.5">
       <c r="A111" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="194"/>
       <c r="C111" s="242" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D111" s="194"/>
       <c r="E111" s="235" t="e">
@@ -23121,13 +23151,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="76.5">
+    <row r="112" spans="1:8" ht="25.5">
       <c r="A112" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="194"/>
       <c r="C112" s="242" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D112" s="194"/>
       <c r="E112" s="235" t="e">
@@ -23141,13 +23171,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="76.5">
+    <row r="113" spans="1:8" ht="25.5">
       <c r="A113" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B113" s="194"/>
       <c r="C113" s="242" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D113" s="194"/>
       <c r="E113" s="235" t="e">
@@ -23161,13 +23191,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="63.75">
+    <row r="114" spans="1:8" ht="25.5">
       <c r="A114" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B114" s="194"/>
       <c r="C114" s="242" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D114" s="194"/>
       <c r="E114" s="235" t="e">
@@ -23187,7 +23217,7 @@
       </c>
       <c r="B115" s="194"/>
       <c r="C115" s="242" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D115" s="194"/>
       <c r="E115" s="235" t="e">
@@ -23201,13 +23231,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="38.25">
+    <row r="116" spans="1:8" ht="25.5">
       <c r="A116" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B116" s="194"/>
       <c r="C116" s="242" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D116" s="194"/>
       <c r="E116" s="235" t="e">
@@ -23221,13 +23251,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="51">
+    <row r="117" spans="1:8">
       <c r="A117" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B117" s="194"/>
       <c r="C117" s="242" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D117" s="194"/>
       <c r="E117" s="235" t="e">
@@ -23241,13 +23271,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="38.25">
+    <row r="118" spans="1:8" ht="25.5">
       <c r="A118" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B118" s="194"/>
       <c r="C118" s="242" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D118" s="194"/>
       <c r="E118" s="235" t="e">
@@ -23261,13 +23291,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="76.5">
+    <row r="119" spans="1:8" ht="25.5">
       <c r="A119" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B119" s="194"/>
       <c r="C119" s="242" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D119" s="194"/>
       <c r="E119" s="235" t="e">
@@ -23281,13 +23311,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="89.25">
+    <row r="120" spans="1:8" ht="25.5">
       <c r="A120" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B120" s="194"/>
       <c r="C120" s="242" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D120" s="194"/>
       <c r="E120" s="235" t="e">
@@ -23301,13 +23331,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="25.5">
+    <row r="121" spans="1:8">
       <c r="A121" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B121" s="194"/>
       <c r="C121" s="242" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D121" s="194"/>
       <c r="E121" s="235" t="e">
@@ -23321,13 +23351,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="76.5">
+    <row r="122" spans="1:8" ht="25.5">
       <c r="A122" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B122" s="194"/>
-      <c r="C122" s="242" t="s">
-        <v>232</v>
+      <c r="C122" s="423" t="s">
+        <v>235</v>
       </c>
       <c r="D122" s="194"/>
       <c r="E122" s="235" t="e">
@@ -23336,18 +23366,18 @@
       </c>
       <c r="F122" s="194"/>
       <c r="G122" s="194"/>
-      <c r="H122" s="235" t="e">
+      <c r="H122" s="420" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="38.25">
+    <row r="123" spans="1:8" ht="25.5">
       <c r="A123" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B123" s="194"/>
-      <c r="C123" s="242" t="s">
-        <v>233</v>
+      <c r="C123" s="423" t="s">
+        <v>236</v>
       </c>
       <c r="D123" s="194"/>
       <c r="E123" s="235" t="e">
@@ -23356,7 +23386,7 @@
       </c>
       <c r="F123" s="194"/>
       <c r="G123" s="194"/>
-      <c r="H123" s="235" t="e">
+      <c r="H123" s="420" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
@@ -23367,7 +23397,7 @@
       </c>
       <c r="B124" s="194"/>
       <c r="C124" s="242" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D124" s="194"/>
       <c r="E124" s="235" t="e">
@@ -23381,13 +23411,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="38.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B125" s="194"/>
-      <c r="C125" s="423" t="s">
-        <v>235</v>
+      <c r="C125" s="242" t="s">
+        <v>238</v>
       </c>
       <c r="D125" s="194"/>
       <c r="E125" s="235" t="e">
@@ -23396,18 +23426,18 @@
       </c>
       <c r="F125" s="194"/>
       <c r="G125" s="194"/>
-      <c r="H125" s="420" t="e">
+      <c r="H125" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="102">
+    <row r="126" spans="1:8" ht="25.5">
       <c r="A126" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B126" s="194"/>
-      <c r="C126" s="423" t="s">
-        <v>236</v>
+      <c r="C126" s="242" t="s">
+        <v>239</v>
       </c>
       <c r="D126" s="194"/>
       <c r="E126" s="235" t="e">
@@ -23416,18 +23446,18 @@
       </c>
       <c r="F126" s="194"/>
       <c r="G126" s="194"/>
-      <c r="H126" s="420" t="e">
+      <c r="H126" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="63.75">
+    <row r="127" spans="1:8" ht="25.5">
       <c r="A127" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B127" s="194"/>
-      <c r="C127" s="242" t="s">
-        <v>237</v>
+      <c r="C127" s="275" t="s">
+        <v>240</v>
       </c>
       <c r="D127" s="194"/>
       <c r="E127" s="235" t="e">
@@ -23441,13 +23471,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="114.75">
+    <row r="128" spans="1:8" ht="25.5">
       <c r="A128" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B128" s="194"/>
       <c r="C128" s="242" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D128" s="194"/>
       <c r="E128" s="235" t="e">
@@ -23461,13 +23491,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="51">
+    <row r="129" spans="1:8" ht="25.5">
       <c r="A129" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B129" s="194"/>
       <c r="C129" s="242" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D129" s="194"/>
       <c r="E129" s="235" t="e">
@@ -23475,19 +23505,21 @@
         <v>#REF!</v>
       </c>
       <c r="F129" s="194"/>
-      <c r="G129" s="194"/>
+      <c r="G129" s="194" t="s">
+        <v>64</v>
+      </c>
       <c r="H129" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="89.25">
+    <row r="130" spans="1:8" ht="25.5">
       <c r="A130" s="194" t="s">
         <v>110</v>
       </c>
       <c r="B130" s="194"/>
-      <c r="C130" s="275" t="s">
-        <v>240</v>
+      <c r="C130" s="242" t="s">
+        <v>243</v>
       </c>
       <c r="D130" s="194"/>
       <c r="E130" s="235" t="e">
@@ -23495,427 +23527,283 @@
         <v>#REF!</v>
       </c>
       <c r="F130" s="194"/>
-      <c r="G130" s="194"/>
+      <c r="G130" s="194" t="s">
+        <v>64</v>
+      </c>
       <c r="H130" s="235" t="e">
         <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="102">
-      <c r="A131" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="B131" s="194"/>
-      <c r="C131" s="242" t="s">
-        <v>241</v>
-      </c>
-      <c r="D131" s="194"/>
-      <c r="E131" s="235" t="e">
-        <f>VLOOKUP(#REF!,[1]FAQ!$C:$F,4,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F131" s="194"/>
-      <c r="G131" s="194"/>
-      <c r="H131" s="235" t="e">
-        <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="63.75">
-      <c r="A132" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="B132" s="194"/>
-      <c r="C132" s="242" t="s">
-        <v>242</v>
-      </c>
-      <c r="D132" s="194"/>
-      <c r="E132" s="235" t="e">
-        <f>VLOOKUP(#REF!,[1]FAQ!$C:$F,4,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F132" s="194"/>
-      <c r="G132" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="H132" s="235" t="e">
-        <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="63.75">
-      <c r="A133" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="B133" s="194"/>
-      <c r="C133" s="242" t="s">
-        <v>243</v>
-      </c>
-      <c r="D133" s="194"/>
-      <c r="E133" s="235" t="e">
-        <f>VLOOKUP(#REF!,[1]FAQ!$C:$F,4,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F133" s="194"/>
-      <c r="G133" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="H133" s="235" t="e">
-        <f>VLOOKUP(#REF!,[1]FAQ!$C:$D,2,0)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="57">
+    <row r="131" spans="1:8" ht="57">
+      <c r="A131" s="436"/>
+      <c r="B131" s="436"/>
+      <c r="C131" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" s="248"/>
+      <c r="E131" s="248" t="s">
+        <v>253</v>
+      </c>
+      <c r="F131" s="248"/>
+      <c r="G131" s="248"/>
+      <c r="H131" s="248"/>
+    </row>
+    <row r="132" spans="1:8" ht="57">
+      <c r="A132" s="436"/>
+      <c r="B132" s="436"/>
+      <c r="C132" s="248" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="248"/>
+      <c r="E132" s="248" t="s">
+        <v>253</v>
+      </c>
+      <c r="F132" s="248"/>
+      <c r="G132" s="248"/>
+      <c r="H132" s="248"/>
+    </row>
+    <row r="133" spans="1:8" ht="42.75">
+      <c r="A133" s="436"/>
+      <c r="B133" s="436"/>
+      <c r="C133" s="248" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" s="248"/>
+      <c r="E133" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" s="248" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="248" t="s">
+        <v>257</v>
+      </c>
+      <c r="H133" s="248"/>
+    </row>
+    <row r="134" spans="1:8" ht="114">
       <c r="A134" s="436"/>
       <c r="B134" s="436"/>
       <c r="C134" s="248" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D134" s="248"/>
       <c r="E134" s="248" t="s">
-        <v>253</v>
-      </c>
-      <c r="F134" s="248"/>
-      <c r="G134" s="248"/>
-      <c r="H134" s="248"/>
-    </row>
-    <row r="135" spans="1:8" ht="57">
+        <v>260</v>
+      </c>
+      <c r="F134" s="248" t="s">
+        <v>103</v>
+      </c>
+      <c r="G134" s="428" t="s">
+        <v>261</v>
+      </c>
+      <c r="H134" s="248" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.5">
       <c r="A135" s="436"/>
       <c r="B135" s="436"/>
       <c r="C135" s="248" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D135" s="248"/>
       <c r="E135" s="248" t="s">
-        <v>253</v>
-      </c>
-      <c r="F135" s="248"/>
-      <c r="G135" s="248"/>
-      <c r="H135" s="248"/>
-    </row>
-    <row r="136" spans="1:8" ht="42.75">
+        <v>23</v>
+      </c>
+      <c r="F135" s="248" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="248" t="s">
+        <v>257</v>
+      </c>
+      <c r="H135" s="248" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="28.5">
       <c r="A136" s="436"/>
       <c r="B136" s="436"/>
-      <c r="C136" s="248" t="s">
-        <v>255</v>
-      </c>
-      <c r="D136" s="248"/>
-      <c r="E136" s="248" t="s">
-        <v>256</v>
-      </c>
-      <c r="F136" s="248" t="s">
+      <c r="C136" s="425" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="425"/>
+      <c r="E136" s="425" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" s="425" t="s">
         <v>24</v>
       </c>
-      <c r="G136" s="248" t="s">
-        <v>257</v>
-      </c>
-      <c r="H136" s="248"/>
-    </row>
-    <row r="137" spans="1:8" ht="114">
+      <c r="G136" s="425" t="s">
+        <v>264</v>
+      </c>
+      <c r="H136" s="425"/>
+    </row>
+    <row r="137" spans="1:8" ht="57">
       <c r="A137" s="436"/>
       <c r="B137" s="436"/>
-      <c r="C137" s="248" t="s">
-        <v>258</v>
-      </c>
-      <c r="D137" s="248"/>
-      <c r="E137" s="248" t="s">
-        <v>260</v>
-      </c>
-      <c r="F137" s="248" t="s">
+      <c r="C137" s="425" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="425"/>
+      <c r="E137" s="425" t="s">
+        <v>98</v>
+      </c>
+      <c r="F137" s="425" t="s">
+        <v>99</v>
+      </c>
+      <c r="G137" s="425"/>
+      <c r="H137" s="425"/>
+    </row>
+    <row r="138" spans="1:8" ht="57">
+      <c r="A138" s="440" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" s="440"/>
+      <c r="C138" s="194" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" s="194"/>
+      <c r="E138" s="429" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F138" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="G137" s="428" t="s">
-        <v>261</v>
-      </c>
-      <c r="H137" s="248" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="28.5">
-      <c r="A138" s="436"/>
-      <c r="B138" s="436"/>
-      <c r="C138" s="248" t="s">
-        <v>262</v>
-      </c>
-      <c r="D138" s="248"/>
-      <c r="E138" s="248" t="s">
+      <c r="G138" s="416" t="s">
+        <v>104</v>
+      </c>
+      <c r="H138" s="194"/>
+    </row>
+    <row r="139" spans="1:8" ht="57">
+      <c r="A139" s="440" t="s">
+        <v>105</v>
+      </c>
+      <c r="B139" s="440"/>
+      <c r="C139" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="D139" s="194"/>
+      <c r="E139" s="431" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F139" s="194" t="s">
+        <v>108</v>
+      </c>
+      <c r="G139" s="416" t="s">
+        <v>109</v>
+      </c>
+      <c r="H139" s="194"/>
+    </row>
+    <row r="140" spans="1:8" ht="28.5">
+      <c r="A140" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="B140" s="194"/>
+      <c r="C140" s="194" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" s="194"/>
+      <c r="E140" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="F138" s="248" t="s">
+      <c r="F140" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="G138" s="248" t="s">
-        <v>257</v>
-      </c>
-      <c r="H138" s="248" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="28.5">
-      <c r="A139" s="436"/>
-      <c r="B139" s="436"/>
-      <c r="C139" s="425" t="s">
-        <v>39</v>
-      </c>
-      <c r="D139" s="425"/>
-      <c r="E139" s="425" t="s">
+      <c r="G140" s="194" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140" s="429" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="28.5">
+      <c r="A141" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141" s="194"/>
+      <c r="C141" s="194" t="s">
+        <v>122</v>
+      </c>
+      <c r="D141" s="194"/>
+      <c r="E141" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="F139" s="425" t="s">
+      <c r="F141" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="G139" s="425" t="s">
-        <v>264</v>
-      </c>
-      <c r="H139" s="425"/>
-    </row>
-    <row r="140" spans="1:8" ht="57">
-      <c r="A140" s="436"/>
-      <c r="B140" s="436"/>
-      <c r="C140" s="425" t="s">
-        <v>40</v>
-      </c>
-      <c r="D140" s="425"/>
-      <c r="E140" s="425" t="s">
-        <v>98</v>
-      </c>
-      <c r="F140" s="425" t="s">
-        <v>99</v>
-      </c>
-      <c r="G140" s="425"/>
-      <c r="H140" s="425"/>
-    </row>
-    <row r="141" spans="1:8" ht="57">
-      <c r="A141" s="440" t="s">
-        <v>100</v>
-      </c>
-      <c r="B141" s="440"/>
-      <c r="C141" s="194" t="s">
-        <v>101</v>
-      </c>
-      <c r="D141" s="194"/>
-      <c r="E141" s="429" t="s">
-        <v>2382</v>
-      </c>
-      <c r="F141" s="194" t="s">
-        <v>103</v>
-      </c>
-      <c r="G141" s="416" t="s">
-        <v>104</v>
-      </c>
-      <c r="H141" s="194"/>
-    </row>
-    <row r="142" spans="1:8" ht="57">
-      <c r="A142" s="440" t="s">
-        <v>105</v>
-      </c>
-      <c r="B142" s="440"/>
-      <c r="C142" s="194" t="s">
-        <v>106</v>
-      </c>
-      <c r="D142" s="194"/>
-      <c r="E142" s="431" t="s">
-        <v>2461</v>
-      </c>
-      <c r="F142" s="194" t="s">
-        <v>108</v>
-      </c>
-      <c r="G142" s="416" t="s">
-        <v>109</v>
-      </c>
-      <c r="H142" s="194"/>
-    </row>
-    <row r="143" spans="1:8" ht="28.5">
-      <c r="A143" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="B143" s="194"/>
-      <c r="C143" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="D143" s="194"/>
-      <c r="E143" s="194" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" s="194" t="s">
+      <c r="G141" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="H143" s="429" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="28.5">
-      <c r="A144" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="B144" s="194"/>
-      <c r="C144" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="D144" s="194"/>
-      <c r="E144" s="194" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="H144" s="194" t="s">
+      <c r="H141" s="194" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="42.75">
-      <c r="A145" s="440"/>
-      <c r="B145" s="433"/>
-      <c r="C145" s="414" t="s">
-        <v>29</v>
-      </c>
-      <c r="D145" s="430" t="s">
-        <v>2367</v>
-      </c>
-      <c r="E145" s="430" t="s">
-        <v>2370</v>
-      </c>
-      <c r="F145" s="248" t="s">
-        <v>31</v>
-      </c>
-      <c r="G145" s="248"/>
-      <c r="H145" s="248"/>
-    </row>
-    <row r="146" spans="1:9" ht="42.75">
-      <c r="A146" s="440"/>
-      <c r="B146" s="433"/>
-      <c r="C146" s="414"/>
-      <c r="D146" s="430" t="s">
-        <v>2374</v>
-      </c>
-      <c r="E146" s="430" t="s">
-        <v>2369</v>
-      </c>
-      <c r="F146" s="248"/>
-      <c r="G146" s="248"/>
-      <c r="H146" s="248"/>
-    </row>
-    <row r="147" spans="1:9" ht="42.75">
-      <c r="A147" s="440"/>
-      <c r="B147" s="433"/>
-      <c r="C147" s="414" t="s">
-        <v>32</v>
-      </c>
-      <c r="D147" s="430" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E147" s="430" t="s">
-        <v>2370</v>
-      </c>
-      <c r="F147" s="248" t="s">
-        <v>34</v>
-      </c>
-      <c r="G147" s="248"/>
-      <c r="H147" s="248"/>
-    </row>
-    <row r="148" spans="1:9" ht="42.75">
-      <c r="A148" s="440"/>
-      <c r="B148" s="433"/>
-      <c r="C148" s="414"/>
-      <c r="D148" s="430" t="s">
-        <v>2375</v>
-      </c>
-      <c r="E148" s="430" t="s">
-        <v>2373</v>
-      </c>
-      <c r="F148" s="248"/>
-      <c r="G148" s="248"/>
-      <c r="H148" s="248"/>
-    </row>
-    <row r="149" spans="1:9" ht="57">
-      <c r="A149" s="440"/>
-      <c r="B149" s="440"/>
-      <c r="C149" s="248" t="s">
-        <v>35</v>
-      </c>
-      <c r="D149" s="430" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E149" s="430" t="s">
-        <v>2370</v>
-      </c>
-      <c r="F149" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="G149" s="248" t="s">
-        <v>38</v>
-      </c>
-      <c r="H149" s="248"/>
+    <row r="142" spans="1:8">
+      <c r="H142" s="282"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="H143" s="282"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="H144" s="282"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="H145" s="282"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="H146" s="282"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="H147" s="282"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="H148" s="282"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="H149" s="282"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="440"/>
-      <c r="B150" s="440"/>
-      <c r="C150" s="248"/>
-      <c r="D150" s="430" t="s">
-        <v>2366</v>
-      </c>
-      <c r="E150" s="430" t="s">
-        <v>2376</v>
-      </c>
-      <c r="F150" s="248"/>
-      <c r="G150" s="248"/>
-      <c r="H150" s="248"/>
-    </row>
-    <row r="151" spans="1:9" ht="28.5">
-      <c r="A151" s="440"/>
-      <c r="B151" s="440"/>
-      <c r="C151" s="194" t="s">
-        <v>39</v>
-      </c>
-      <c r="D151" s="194"/>
-      <c r="E151" s="194" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" s="194" t="s">
-        <v>25</v>
-      </c>
-      <c r="H151" s="194"/>
+      <c r="H150" s="282"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="H151" s="282"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="440"/>
-      <c r="B152" s="440"/>
-      <c r="C152" s="248" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152" s="248"/>
-      <c r="E152" s="248"/>
-      <c r="F152" s="248" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" s="248"/>
-      <c r="H152" s="248"/>
+      <c r="H152" s="282"/>
     </row>
     <row r="153" spans="1:9">
       <c r="H153" s="282"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" s="410" customFormat="1">
+      <c r="A154" s="333"/>
+      <c r="B154" s="333"/>
       <c r="H154" s="282"/>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="I154" s="282"/>
+    </row>
+    <row r="155" spans="1:9" s="410" customFormat="1">
+      <c r="A155" s="333"/>
+      <c r="B155" s="333"/>
       <c r="H155" s="282"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="I155" s="282"/>
+    </row>
+    <row r="156" spans="1:9" s="410" customFormat="1">
+      <c r="A156" s="333"/>
+      <c r="B156" s="333"/>
       <c r="H156" s="282"/>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="I156" s="282"/>
+    </row>
+    <row r="157" spans="1:9" s="410" customFormat="1">
+      <c r="A157" s="333"/>
+      <c r="B157" s="333"/>
       <c r="H157" s="282"/>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="I157" s="282"/>
+    </row>
+    <row r="158" spans="1:9" s="410" customFormat="1">
+      <c r="A158" s="333"/>
+      <c r="B158" s="333"/>
       <c r="H158" s="282"/>
+      <c r="I158" s="282"/>
     </row>
     <row r="159" spans="1:9" s="410" customFormat="1">
       <c r="A159" s="333"/>
@@ -23944,67 +23832,56 @@
     <row r="163" spans="1:9" s="410" customFormat="1">
       <c r="A163" s="333"/>
       <c r="B163" s="333"/>
-      <c r="H163" s="282"/>
       <c r="I163" s="282"/>
     </row>
     <row r="164" spans="1:9" s="410" customFormat="1">
       <c r="A164" s="333"/>
       <c r="B164" s="333"/>
-      <c r="H164" s="282"/>
       <c r="I164" s="282"/>
     </row>
     <row r="165" spans="1:9" s="410" customFormat="1">
       <c r="A165" s="333"/>
       <c r="B165" s="333"/>
-      <c r="H165" s="282"/>
       <c r="I165" s="282"/>
     </row>
     <row r="166" spans="1:9" s="410" customFormat="1">
       <c r="A166" s="333"/>
       <c r="B166" s="333"/>
-      <c r="H166" s="282"/>
       <c r="I166" s="282"/>
     </row>
     <row r="167" spans="1:9" s="410" customFormat="1">
       <c r="A167" s="333"/>
       <c r="B167" s="333"/>
-      <c r="H167" s="282"/>
       <c r="I167" s="282"/>
     </row>
     <row r="168" spans="1:9" s="410" customFormat="1">
       <c r="A168" s="333"/>
       <c r="B168" s="333"/>
-      <c r="H168" s="282"/>
       <c r="I168" s="282"/>
     </row>
     <row r="169" spans="1:9" s="410" customFormat="1">
       <c r="A169" s="333"/>
       <c r="B169" s="333"/>
-      <c r="H169" s="282"/>
       <c r="I169" s="282"/>
     </row>
     <row r="170" spans="1:9" s="410" customFormat="1">
       <c r="A170" s="333"/>
       <c r="B170" s="333"/>
-      <c r="H170" s="282"/>
       <c r="I170" s="282"/>
     </row>
     <row r="171" spans="1:9" s="410" customFormat="1">
       <c r="A171" s="333"/>
       <c r="B171" s="333"/>
-      <c r="H171" s="282"/>
       <c r="I171" s="282"/>
     </row>
     <row r="172" spans="1:9" s="410" customFormat="1">
       <c r="A172" s="333"/>
       <c r="B172" s="333"/>
-      <c r="H172" s="282"/>
       <c r="I172" s="282"/>
     </row>
     <row r="173" spans="1:9" s="410" customFormat="1">
       <c r="A173" s="333"/>
       <c r="B173" s="333"/>
-      <c r="H173" s="282"/>
       <c r="I173" s="282"/>
     </row>
     <row r="174" spans="1:9" s="410" customFormat="1">
@@ -24022,58 +23899,31 @@
       <c r="B176" s="333"/>
       <c r="I176" s="282"/>
     </row>
-    <row r="177" spans="1:9" s="410" customFormat="1">
-      <c r="A177" s="333"/>
-      <c r="B177" s="333"/>
-      <c r="I177" s="282"/>
-    </row>
-    <row r="178" spans="1:9" s="410" customFormat="1">
-      <c r="A178" s="333"/>
-      <c r="B178" s="333"/>
-      <c r="I178" s="282"/>
-    </row>
-    <row r="179" spans="1:9" s="410" customFormat="1">
-      <c r="A179" s="333"/>
-      <c r="B179" s="333"/>
-      <c r="I179" s="282"/>
-    </row>
-    <row r="180" spans="1:9" s="410" customFormat="1">
-      <c r="A180" s="333"/>
-      <c r="B180" s="333"/>
-      <c r="I180" s="282"/>
-    </row>
-    <row r="181" spans="1:9" s="410" customFormat="1">
-      <c r="A181" s="333"/>
-      <c r="B181" s="333"/>
-      <c r="I181" s="282"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:G140"/>
-  <mergeCells count="12">
+  <autoFilter ref="A2:G137"/>
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="C37">
     <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C38">
     <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C39">
     <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
+  <conditionalFormatting sqref="C68">
     <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24137,7 +23987,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="227" customFormat="1" ht="76.5">
-      <c r="A2" s="493" t="s">
+      <c r="A2" s="490" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="233" t="s">
@@ -24160,7 +24010,7 @@
       <c r="I2" s="233"/>
     </row>
     <row r="3" spans="1:9" s="227" customFormat="1" ht="51">
-      <c r="A3" s="493"/>
+      <c r="A3" s="490"/>
       <c r="B3" s="233" t="s">
         <v>248</v>
       </c>
@@ -24183,7 +24033,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="227" customFormat="1" ht="63.75">
-      <c r="A4" s="493"/>
+      <c r="A4" s="490"/>
       <c r="B4" s="233" t="s">
         <v>250</v>
       </c>
@@ -24206,7 +24056,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="227" customFormat="1" ht="63.75">
-      <c r="A5" s="493"/>
+      <c r="A5" s="490"/>
       <c r="B5" s="233" t="s">
         <v>1869</v>
       </c>
@@ -24225,7 +24075,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="227" customFormat="1" ht="63.75">
-      <c r="A6" s="493"/>
+      <c r="A6" s="490"/>
       <c r="B6" s="233" t="s">
         <v>1871</v>
       </c>
@@ -24244,7 +24094,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="227" customFormat="1" ht="51">
-      <c r="A7" s="493"/>
+      <c r="A7" s="490"/>
       <c r="B7" s="233" t="s">
         <v>1872</v>
       </c>
@@ -24263,7 +24113,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="227" customFormat="1" ht="51">
-      <c r="A8" s="493"/>
+      <c r="A8" s="490"/>
       <c r="B8" s="233" t="s">
         <v>1873</v>
       </c>
@@ -24284,7 +24134,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="227" customFormat="1" ht="51">
-      <c r="A9" s="493"/>
+      <c r="A9" s="490"/>
       <c r="B9" s="233" t="s">
         <v>1876</v>
       </c>
@@ -24305,7 +24155,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="227" customFormat="1" ht="51">
-      <c r="A10" s="493"/>
+      <c r="A10" s="490"/>
       <c r="B10" s="233" t="s">
         <v>39</v>
       </c>
@@ -24328,7 +24178,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="227" customFormat="1" ht="63.75">
-      <c r="A11" s="493"/>
+      <c r="A11" s="490"/>
       <c r="B11" s="233" t="s">
         <v>40</v>
       </c>
@@ -24351,7 +24201,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="227" customFormat="1" ht="38.25">
-      <c r="A12" s="494" t="s">
+      <c r="A12" s="491" t="s">
         <v>92</v>
       </c>
       <c r="B12" s="235" t="s">
@@ -24372,7 +24222,7 @@
       <c r="I12" s="235"/>
     </row>
     <row r="13" spans="1:9" s="227" customFormat="1" ht="38.25">
-      <c r="A13" s="495"/>
+      <c r="A13" s="492"/>
       <c r="B13" s="235" t="s">
         <v>18</v>
       </c>
@@ -24395,7 +24245,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="227" customFormat="1" ht="38.25">
-      <c r="A14" s="495"/>
+      <c r="A14" s="492"/>
       <c r="B14" s="237" t="s">
         <v>42</v>
       </c>
@@ -24418,7 +24268,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="227" customFormat="1" ht="38.25">
-      <c r="A15" s="495"/>
+      <c r="A15" s="492"/>
       <c r="B15" s="237" t="s">
         <v>51</v>
       </c>
@@ -24441,7 +24291,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="227" customFormat="1" ht="38.25">
-      <c r="A16" s="495"/>
+      <c r="A16" s="492"/>
       <c r="B16" s="237" t="s">
         <v>66</v>
       </c>
@@ -24464,7 +24314,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="227" customFormat="1" ht="51">
-      <c r="A17" s="496"/>
+      <c r="A17" s="493"/>
       <c r="B17" s="233" t="s">
         <v>248</v>
       </c>
@@ -24487,7 +24337,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="227" customFormat="1" ht="51">
-      <c r="A18" s="495" t="s">
+      <c r="A18" s="492" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="235" t="s">
@@ -24508,7 +24358,7 @@
       <c r="I18" s="235"/>
     </row>
     <row r="19" spans="1:10" s="227" customFormat="1" ht="38.25">
-      <c r="A19" s="495"/>
+      <c r="A19" s="492"/>
       <c r="B19" s="235" t="s">
         <v>18</v>
       </c>
@@ -24531,7 +24381,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="227" customFormat="1" ht="38.25">
-      <c r="A20" s="495"/>
+      <c r="A20" s="492"/>
       <c r="B20" s="237" t="s">
         <v>42</v>
       </c>
@@ -24554,7 +24404,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="227" customFormat="1" ht="38.25">
-      <c r="A21" s="495"/>
+      <c r="A21" s="492"/>
       <c r="B21" s="237" t="s">
         <v>51</v>
       </c>
@@ -24577,7 +24427,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="227" customFormat="1" ht="38.25">
-      <c r="A22" s="495"/>
+      <c r="A22" s="492"/>
       <c r="B22" s="237" t="s">
         <v>66</v>
       </c>
@@ -24600,7 +24450,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="227" customFormat="1" ht="63.75">
-      <c r="A23" s="496"/>
+      <c r="A23" s="493"/>
       <c r="B23" s="233" t="s">
         <v>250</v>
       </c>
@@ -30131,13 +29981,13 @@
       <c r="A3" s="191">
         <v>2</v>
       </c>
-      <c r="B3" s="454" t="s">
+      <c r="B3" s="451" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="454" t="s">
+      <c r="C3" s="451" t="s">
         <v>2294</v>
       </c>
-      <c r="D3" s="497" t="s">
+      <c r="D3" s="494" t="s">
         <v>2295</v>
       </c>
       <c r="E3" s="192" t="s">
@@ -30154,9 +30004,9 @@
       <c r="A4" s="191">
         <v>3</v>
       </c>
-      <c r="B4" s="453"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="498"/>
+      <c r="B4" s="452"/>
+      <c r="C4" s="452"/>
+      <c r="D4" s="495"/>
       <c r="E4" s="192" t="s">
         <v>2298</v>
       </c>
@@ -30171,9 +30021,9 @@
       <c r="A5" s="191">
         <v>4</v>
       </c>
-      <c r="B5" s="452"/>
-      <c r="C5" s="452"/>
-      <c r="D5" s="499"/>
+      <c r="B5" s="453"/>
+      <c r="C5" s="453"/>
+      <c r="D5" s="496"/>
       <c r="E5" s="192" t="s">
         <v>2299</v>
       </c>
@@ -30462,7 +30312,7 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="16.5">
-      <c r="A3" s="462" t="s">
+      <c r="A3" s="468" t="s">
         <v>619</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -30482,7 +30332,7 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="16.5">
-      <c r="A4" s="462"/>
+      <c r="A4" s="468"/>
       <c r="B4" s="19" t="s">
         <v>628</v>
       </c>
@@ -30498,7 +30348,7 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1">
-      <c r="A5" s="462"/>
+      <c r="A5" s="468"/>
       <c r="B5" s="19" t="s">
         <v>632</v>
       </c>
@@ -30642,7 +30492,7 @@
       <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="25.5">
-      <c r="A15" s="462" t="s">
+      <c r="A15" s="468" t="s">
         <v>655</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -30659,7 +30509,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="13.5">
-      <c r="A16" s="462"/>
+      <c r="A16" s="468"/>
       <c r="B16" s="32" t="s">
         <v>690</v>
       </c>
@@ -30674,7 +30524,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A17" s="462"/>
+      <c r="A17" s="468"/>
       <c r="B17" s="33" t="s">
         <v>695</v>
       </c>
@@ -30689,7 +30539,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A18" s="462"/>
+      <c r="A18" s="468"/>
       <c r="B18" s="35" t="s">
         <v>700</v>
       </c>
@@ -30704,7 +30554,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A19" s="462"/>
+      <c r="A19" s="468"/>
       <c r="B19" s="33" t="s">
         <v>703</v>
       </c>
@@ -30719,7 +30569,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A20" s="462"/>
+      <c r="A20" s="468"/>
       <c r="B20" s="33" t="s">
         <v>707</v>
       </c>
@@ -30732,7 +30582,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A21" s="462"/>
+      <c r="A21" s="468"/>
       <c r="B21" s="33" t="s">
         <v>712</v>
       </c>
@@ -30747,7 +30597,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A22" s="462"/>
+      <c r="A22" s="468"/>
       <c r="B22" s="33" t="s">
         <v>717</v>
       </c>
@@ -30760,7 +30610,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A23" s="462"/>
+      <c r="A23" s="468"/>
       <c r="B23" s="33" t="s">
         <v>721</v>
       </c>
@@ -30775,7 +30625,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A24" s="462"/>
+      <c r="A24" s="468"/>
       <c r="B24" s="33" t="s">
         <v>728</v>
       </c>
@@ -30790,7 +30640,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A25" s="462"/>
+      <c r="A25" s="468"/>
       <c r="B25" s="33" t="s">
         <v>732</v>
       </c>
@@ -30803,7 +30653,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A26" s="462"/>
+      <c r="A26" s="468"/>
       <c r="B26" s="35" t="s">
         <v>734</v>
       </c>
@@ -30818,7 +30668,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A27" s="462"/>
+      <c r="A27" s="468"/>
       <c r="B27" s="35" t="s">
         <v>739</v>
       </c>
@@ -30831,7 +30681,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1">
-      <c r="A28" s="462" t="s">
+      <c r="A28" s="468" t="s">
         <v>635</v>
       </c>
       <c r="B28" s="37" t="s">
@@ -30846,7 +30696,7 @@
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" s="13" customFormat="1">
-      <c r="A29" s="462"/>
+      <c r="A29" s="468"/>
       <c r="B29" s="37" t="s">
         <v>748</v>
       </c>
@@ -30859,7 +30709,7 @@
       <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5" s="13" customFormat="1">
-      <c r="A30" s="462"/>
+      <c r="A30" s="468"/>
       <c r="B30" s="37" t="s">
         <v>752</v>
       </c>
@@ -30872,7 +30722,7 @@
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" s="13" customFormat="1">
-      <c r="A31" s="462"/>
+      <c r="A31" s="468"/>
       <c r="B31" s="37" t="s">
         <v>755</v>
       </c>
@@ -30885,7 +30735,7 @@
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" s="13" customFormat="1">
-      <c r="A32" s="462"/>
+      <c r="A32" s="468"/>
       <c r="B32" s="37" t="s">
         <v>760</v>
       </c>
@@ -30898,7 +30748,7 @@
       <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" s="13" customFormat="1">
-      <c r="A33" s="462"/>
+      <c r="A33" s="468"/>
       <c r="B33" s="37" t="s">
         <v>764</v>
       </c>
@@ -30911,7 +30761,7 @@
       <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" s="13" customFormat="1">
-      <c r="A34" s="462"/>
+      <c r="A34" s="468"/>
       <c r="B34" s="37" t="s">
         <v>769</v>
       </c>
@@ -30924,7 +30774,7 @@
       <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A35" s="462"/>
+      <c r="A35" s="468"/>
       <c r="B35" s="37" t="s">
         <v>774</v>
       </c>
@@ -30937,7 +30787,7 @@
       <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" s="13" customFormat="1">
-      <c r="A36" s="462"/>
+      <c r="A36" s="468"/>
       <c r="B36" s="37" t="s">
         <v>778</v>
       </c>
@@ -30950,7 +30800,7 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" s="13" customFormat="1">
-      <c r="A37" s="462"/>
+      <c r="A37" s="468"/>
       <c r="B37" s="37" t="s">
         <v>783</v>
       </c>
@@ -30963,7 +30813,7 @@
       <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5" s="13" customFormat="1" ht="42.75">
-      <c r="A38" s="462" t="s">
+      <c r="A38" s="468" t="s">
         <v>643</v>
       </c>
       <c r="B38" s="40" t="s">
@@ -30978,7 +30828,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A39" s="462"/>
+      <c r="A39" s="468"/>
       <c r="B39" s="40" t="s">
         <v>792</v>
       </c>
@@ -30993,7 +30843,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A40" s="462"/>
+      <c r="A40" s="468"/>
       <c r="B40" s="40" t="s">
         <v>796</v>
       </c>
@@ -31008,7 +30858,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A41" s="462"/>
+      <c r="A41" s="468"/>
       <c r="B41" s="40" t="s">
         <v>800</v>
       </c>
@@ -31023,7 +30873,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A42" s="462"/>
+      <c r="A42" s="468"/>
       <c r="B42" s="40" t="s">
         <v>805</v>
       </c>
@@ -31038,7 +30888,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A43" s="462"/>
+      <c r="A43" s="468"/>
       <c r="B43" s="40" t="s">
         <v>809</v>
       </c>
@@ -31053,7 +30903,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A44" s="462"/>
+      <c r="A44" s="468"/>
       <c r="B44" s="40" t="s">
         <v>813</v>
       </c>
@@ -31068,7 +30918,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A45" s="462"/>
+      <c r="A45" s="468"/>
       <c r="B45" s="40" t="s">
         <v>817</v>
       </c>
@@ -31081,7 +30931,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A46" s="462"/>
+      <c r="A46" s="468"/>
       <c r="B46" s="40" t="s">
         <v>820</v>
       </c>
@@ -31096,7 +30946,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A47" s="462" t="s">
+      <c r="A47" s="468" t="s">
         <v>665</v>
       </c>
       <c r="B47" s="46" t="s">
@@ -31113,7 +30963,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A48" s="462"/>
+      <c r="A48" s="468"/>
       <c r="B48" s="46" t="s">
         <v>828</v>
       </c>
@@ -31126,7 +30976,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A49" s="462"/>
+      <c r="A49" s="468"/>
       <c r="B49" s="46" t="s">
         <v>831</v>
       </c>
@@ -31139,7 +30989,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A50" s="462"/>
+      <c r="A50" s="468"/>
       <c r="B50" s="49" t="s">
         <v>833</v>
       </c>
@@ -31152,7 +31002,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A51" s="462"/>
+      <c r="A51" s="468"/>
       <c r="B51" s="46" t="s">
         <v>836</v>
       </c>
@@ -31165,7 +31015,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A52" s="462"/>
+      <c r="A52" s="468"/>
       <c r="B52" s="46" t="s">
         <v>839</v>
       </c>
@@ -31178,7 +31028,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A53" s="462"/>
+      <c r="A53" s="468"/>
       <c r="B53" s="46" t="s">
         <v>842</v>
       </c>
@@ -31191,7 +31041,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A54" s="462" t="s">
+      <c r="A54" s="468" t="s">
         <v>669</v>
       </c>
       <c r="B54" s="51" t="s">
@@ -31208,7 +31058,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="13" customFormat="1" ht="38.25">
-      <c r="A55" s="462"/>
+      <c r="A55" s="468"/>
       <c r="B55" s="51" t="s">
         <v>850</v>
       </c>
@@ -31221,7 +31071,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A56" s="462"/>
+      <c r="A56" s="468"/>
       <c r="B56" s="51" t="s">
         <v>853</v>
       </c>
@@ -31236,7 +31086,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A57" s="462"/>
+      <c r="A57" s="468"/>
       <c r="B57" s="51" t="s">
         <v>857</v>
       </c>
@@ -31251,7 +31101,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A58" s="462"/>
+      <c r="A58" s="468"/>
       <c r="B58" s="51" t="s">
         <v>861</v>
       </c>
@@ -31266,7 +31116,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="13" customFormat="1" ht="13.5">
-      <c r="A59" s="462"/>
+      <c r="A59" s="468"/>
       <c r="B59" s="51" t="s">
         <v>865</v>
       </c>
@@ -31296,7 +31146,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" s="13" customFormat="1">
-      <c r="A61" s="462" t="s">
+      <c r="A61" s="468" t="s">
         <v>682</v>
       </c>
       <c r="B61" s="60" t="s">
@@ -31311,7 +31161,7 @@
       <c r="E61" s="60"/>
     </row>
     <row r="62" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A62" s="462"/>
+      <c r="A62" s="468"/>
       <c r="B62" s="60" t="s">
         <v>877</v>
       </c>
@@ -31324,7 +31174,7 @@
       <c r="E62" s="60"/>
     </row>
     <row r="63" spans="1:5" s="13" customFormat="1">
-      <c r="A63" s="462"/>
+      <c r="A63" s="468"/>
       <c r="B63" s="60" t="s">
         <v>880</v>
       </c>
@@ -31337,7 +31187,7 @@
       <c r="E63" s="61"/>
     </row>
     <row r="64" spans="1:5" s="13" customFormat="1">
-      <c r="A64" s="462"/>
+      <c r="A64" s="468"/>
       <c r="B64" s="60" t="s">
         <v>883</v>
       </c>
@@ -31350,7 +31200,7 @@
       <c r="E64" s="60"/>
     </row>
     <row r="65" spans="1:5" s="13" customFormat="1">
-      <c r="A65" s="462"/>
+      <c r="A65" s="468"/>
       <c r="B65" s="60" t="s">
         <v>886</v>
       </c>
@@ -31363,7 +31213,7 @@
       <c r="E65" s="60"/>
     </row>
     <row r="66" spans="1:5" s="13" customFormat="1">
-      <c r="A66" s="462"/>
+      <c r="A66" s="468"/>
       <c r="B66" s="62" t="s">
         <v>889</v>
       </c>
@@ -31376,7 +31226,7 @@
       <c r="E66" s="63"/>
     </row>
     <row r="67" spans="1:5" s="13" customFormat="1">
-      <c r="A67" s="462"/>
+      <c r="A67" s="468"/>
       <c r="B67" s="62" t="s">
         <v>892</v>
       </c>
@@ -31389,7 +31239,7 @@
       <c r="E67" s="63"/>
     </row>
     <row r="68" spans="1:5" s="13" customFormat="1">
-      <c r="A68" s="462"/>
+      <c r="A68" s="468"/>
       <c r="B68" s="62" t="s">
         <v>895</v>
       </c>
@@ -31402,7 +31252,7 @@
       <c r="E68" s="62"/>
     </row>
     <row r="69" spans="1:5" s="13" customFormat="1">
-      <c r="A69" s="462"/>
+      <c r="A69" s="468"/>
       <c r="B69" s="62" t="s">
         <v>898</v>
       </c>
@@ -31415,7 +31265,7 @@
       <c r="E69" s="62"/>
     </row>
     <row r="70" spans="1:5" s="13" customFormat="1">
-      <c r="A70" s="462"/>
+      <c r="A70" s="468"/>
       <c r="B70" s="60" t="s">
         <v>901</v>
       </c>
@@ -31428,7 +31278,7 @@
       <c r="E70" s="60"/>
     </row>
     <row r="71" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A71" s="462"/>
+      <c r="A71" s="468"/>
       <c r="B71" s="64" t="s">
         <v>904</v>
       </c>
@@ -31441,7 +31291,7 @@
       <c r="E71" s="64"/>
     </row>
     <row r="72" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A72" s="462"/>
+      <c r="A72" s="468"/>
       <c r="B72" s="64" t="s">
         <v>907</v>
       </c>
@@ -31454,7 +31304,7 @@
       <c r="E72" s="65"/>
     </row>
     <row r="73" spans="1:5" s="13" customFormat="1">
-      <c r="A73" s="462"/>
+      <c r="A73" s="468"/>
       <c r="B73" s="66" t="s">
         <v>910</v>
       </c>
@@ -31467,7 +31317,7 @@
       <c r="E73" s="67"/>
     </row>
     <row r="74" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A74" s="471" t="s">
+      <c r="A74" s="473" t="s">
         <v>689</v>
       </c>
       <c r="B74" s="69" t="s">
@@ -31482,7 +31332,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" s="13" customFormat="1">
-      <c r="A75" s="472"/>
+      <c r="A75" s="466"/>
       <c r="B75" s="71" t="s">
         <v>917</v>
       </c>
@@ -31495,7 +31345,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" s="13" customFormat="1">
-      <c r="A76" s="472"/>
+      <c r="A76" s="466"/>
       <c r="B76" s="71" t="s">
         <v>920</v>
       </c>
@@ -31508,7 +31358,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" s="13" customFormat="1">
-      <c r="A77" s="477"/>
+      <c r="A77" s="467"/>
       <c r="B77" s="72" t="s">
         <v>923</v>
       </c>
@@ -31521,7 +31371,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" s="13" customFormat="1">
-      <c r="A78" s="462" t="s">
+      <c r="A78" s="468" t="s">
         <v>694</v>
       </c>
       <c r="B78" s="73" t="s">
@@ -31538,7 +31388,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A79" s="462"/>
+      <c r="A79" s="468"/>
       <c r="B79" s="73" t="s">
         <v>930</v>
       </c>
@@ -31553,7 +31403,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" s="13" customFormat="1">
-      <c r="A80" s="462"/>
+      <c r="A80" s="468"/>
       <c r="B80" s="73" t="s">
         <v>933</v>
       </c>
@@ -31568,7 +31418,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A81" s="462"/>
+      <c r="A81" s="468"/>
       <c r="B81" s="73" t="s">
         <v>936</v>
       </c>
@@ -31583,7 +31433,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" s="13" customFormat="1">
-      <c r="A82" s="462"/>
+      <c r="A82" s="468"/>
       <c r="B82" s="73" t="s">
         <v>940</v>
       </c>
@@ -31598,7 +31448,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A83" s="462"/>
+      <c r="A83" s="468"/>
       <c r="B83" s="73" t="s">
         <v>944</v>
       </c>
@@ -31613,7 +31463,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" s="13" customFormat="1">
-      <c r="A84" s="473" t="s">
+      <c r="A84" s="471" t="s">
         <v>693</v>
       </c>
       <c r="B84" s="80" t="s">
@@ -31630,7 +31480,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A85" s="473"/>
+      <c r="A85" s="471"/>
       <c r="B85" s="84" t="s">
         <v>952</v>
       </c>
@@ -31643,7 +31493,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" s="13" customFormat="1">
-      <c r="A86" s="473"/>
+      <c r="A86" s="471"/>
       <c r="B86" s="84" t="s">
         <v>955</v>
       </c>
@@ -31656,7 +31506,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A87" s="473"/>
+      <c r="A87" s="471"/>
       <c r="B87" s="84" t="s">
         <v>958</v>
       </c>
@@ -31669,7 +31519,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" s="13" customFormat="1">
-      <c r="A88" s="474"/>
+      <c r="A88" s="472"/>
       <c r="B88" s="80" t="s">
         <v>961</v>
       </c>
@@ -31697,7 +31547,7 @@
       <c r="E89" s="89"/>
     </row>
     <row r="90" spans="1:5" s="13" customFormat="1">
-      <c r="A90" s="475" t="s">
+      <c r="A90" s="470" t="s">
         <v>668</v>
       </c>
       <c r="B90" s="91" t="s">
@@ -31714,7 +31564,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="13" customFormat="1" ht="42.75">
-      <c r="A91" s="473"/>
+      <c r="A91" s="471"/>
       <c r="B91" s="91" t="s">
         <v>973</v>
       </c>
@@ -31729,7 +31579,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A92" s="473"/>
+      <c r="A92" s="471"/>
       <c r="B92" s="95" t="s">
         <v>976</v>
       </c>
@@ -31744,7 +31594,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" s="13" customFormat="1">
-      <c r="A93" s="473"/>
+      <c r="A93" s="471"/>
       <c r="B93" s="95" t="s">
         <v>980</v>
       </c>
@@ -31759,7 +31609,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" s="13" customFormat="1">
-      <c r="A94" s="473"/>
+      <c r="A94" s="471"/>
       <c r="B94" s="95" t="s">
         <v>984</v>
       </c>
@@ -31774,7 +31624,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A95" s="473"/>
+      <c r="A95" s="471"/>
       <c r="B95" s="95" t="s">
         <v>988</v>
       </c>
@@ -31789,7 +31639,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" s="13" customFormat="1">
-      <c r="A96" s="473"/>
+      <c r="A96" s="471"/>
       <c r="B96" s="95" t="s">
         <v>992</v>
       </c>
@@ -31804,7 +31654,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" s="13" customFormat="1">
-      <c r="A97" s="473"/>
+      <c r="A97" s="471"/>
       <c r="B97" s="95" t="s">
         <v>996</v>
       </c>
@@ -31819,7 +31669,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" s="13" customFormat="1">
-      <c r="A98" s="473"/>
+      <c r="A98" s="471"/>
       <c r="B98" s="95" t="s">
         <v>1000</v>
       </c>
@@ -31834,7 +31684,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" s="13" customFormat="1">
-      <c r="A99" s="473"/>
+      <c r="A99" s="471"/>
       <c r="B99" s="95" t="s">
         <v>1004</v>
       </c>
@@ -31849,7 +31699,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A100" s="473"/>
+      <c r="A100" s="471"/>
       <c r="B100" s="95" t="s">
         <v>1007</v>
       </c>
@@ -31864,7 +31714,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" s="13" customFormat="1">
-      <c r="A101" s="473"/>
+      <c r="A101" s="471"/>
       <c r="B101" s="95" t="s">
         <v>1011</v>
       </c>
@@ -31879,7 +31729,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A102" s="474"/>
+      <c r="A102" s="472"/>
       <c r="B102" s="95" t="s">
         <v>1014</v>
       </c>
@@ -31914,7 +31764,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" s="13" customFormat="1">
-      <c r="A104" s="475" t="s">
+      <c r="A104" s="470" t="s">
         <v>716</v>
       </c>
       <c r="B104" s="104" t="s">
@@ -31931,7 +31781,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A105" s="473"/>
+      <c r="A105" s="471"/>
       <c r="B105" s="104" t="s">
         <v>1030</v>
       </c>
@@ -31946,7 +31796,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A106" s="473"/>
+      <c r="A106" s="471"/>
       <c r="B106" s="84" t="s">
         <v>1034</v>
       </c>
@@ -31959,7 +31809,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A107" s="473"/>
+      <c r="A107" s="471"/>
       <c r="B107" s="84" t="s">
         <v>1037</v>
       </c>
@@ -31974,7 +31824,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A108" s="474"/>
+      <c r="A108" s="472"/>
       <c r="B108" s="84" t="s">
         <v>1040</v>
       </c>
@@ -31987,7 +31837,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A109" s="475" t="s">
+      <c r="A109" s="470" t="s">
         <v>720</v>
       </c>
       <c r="B109" s="84" t="s">
@@ -32004,7 +31854,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" s="13" customFormat="1">
-      <c r="A110" s="473"/>
+      <c r="A110" s="471"/>
       <c r="B110" s="84" t="s">
         <v>1049</v>
       </c>
@@ -32019,7 +31869,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" s="13" customFormat="1">
-      <c r="A111" s="473"/>
+      <c r="A111" s="471"/>
       <c r="B111" s="84" t="s">
         <v>1053</v>
       </c>
@@ -32034,7 +31884,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" s="13" customFormat="1" ht="28.5">
-      <c r="A112" s="473"/>
+      <c r="A112" s="471"/>
       <c r="B112" s="84" t="s">
         <v>1056</v>
       </c>
@@ -32049,7 +31899,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A113" s="473"/>
+      <c r="A113" s="471"/>
       <c r="B113" s="84" t="s">
         <v>1060</v>
       </c>
@@ -32062,7 +31912,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A114" s="473"/>
+      <c r="A114" s="471"/>
       <c r="B114" s="84" t="s">
         <v>1063</v>
       </c>
@@ -32077,7 +31927,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" s="13" customFormat="1">
-      <c r="A115" s="473"/>
+      <c r="A115" s="471"/>
       <c r="B115" s="106" t="s">
         <v>1066</v>
       </c>
@@ -32092,7 +31942,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" s="13" customFormat="1">
-      <c r="A116" s="473"/>
+      <c r="A116" s="471"/>
       <c r="B116" s="84" t="s">
         <v>1071</v>
       </c>
@@ -32105,7 +31955,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A117" s="473"/>
+      <c r="A117" s="471"/>
       <c r="B117" s="84" t="s">
         <v>1074</v>
       </c>
@@ -32120,7 +31970,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" s="13" customFormat="1">
-      <c r="A118" s="473"/>
+      <c r="A118" s="471"/>
       <c r="B118" s="84" t="s">
         <v>1078</v>
       </c>
@@ -32133,7 +31983,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" s="13" customFormat="1">
-      <c r="A119" s="473"/>
+      <c r="A119" s="471"/>
       <c r="B119" s="84" t="s">
         <v>1081</v>
       </c>
@@ -32148,7 +31998,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A120" s="473"/>
+      <c r="A120" s="471"/>
       <c r="B120" s="104" t="s">
         <v>1085</v>
       </c>
@@ -32163,7 +32013,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" s="13" customFormat="1" ht="15.75">
-      <c r="A121" s="473"/>
+      <c r="A121" s="471"/>
       <c r="B121" s="84" t="s">
         <v>1089</v>
       </c>
@@ -32178,7 +32028,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" s="13" customFormat="1" ht="31.5">
-      <c r="A122" s="473"/>
+      <c r="A122" s="471"/>
       <c r="B122" s="84" t="s">
         <v>1093</v>
       </c>
@@ -32193,7 +32043,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" s="13" customFormat="1" ht="31.5">
-      <c r="A123" s="473"/>
+      <c r="A123" s="471"/>
       <c r="B123" s="111" t="s">
         <v>1097</v>
       </c>
@@ -32206,7 +32056,7 @@
       <c r="E123" s="113"/>
     </row>
     <row r="124" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A124" s="473"/>
+      <c r="A124" s="471"/>
       <c r="B124" s="111" t="s">
         <v>1100</v>
       </c>
@@ -32219,7 +32069,7 @@
       <c r="E124" s="114"/>
     </row>
     <row r="125" spans="1:5" s="13" customFormat="1" ht="31.5">
-      <c r="A125" s="473"/>
+      <c r="A125" s="471"/>
       <c r="B125" s="111" t="s">
         <v>1103</v>
       </c>
@@ -32232,7 +32082,7 @@
       <c r="E125" s="113"/>
     </row>
     <row r="126" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A126" s="474"/>
+      <c r="A126" s="472"/>
       <c r="B126" s="115" t="s">
         <v>1106</v>
       </c>
@@ -32260,7 +32110,7 @@
       <c r="E127" s="121"/>
     </row>
     <row r="128" spans="1:5" s="13" customFormat="1">
-      <c r="A128" s="503" t="s">
+      <c r="A128" s="497" t="s">
         <v>731</v>
       </c>
       <c r="B128" s="122" t="s">
@@ -32275,7 +32125,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" s="13" customFormat="1">
-      <c r="A129" s="504"/>
+      <c r="A129" s="498"/>
       <c r="B129" s="122" t="s">
         <v>1118</v>
       </c>
@@ -32290,7 +32140,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" s="13" customFormat="1">
-      <c r="A130" s="504"/>
+      <c r="A130" s="498"/>
       <c r="B130" s="122" t="s">
         <v>1121</v>
       </c>
@@ -32305,7 +32155,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" s="13" customFormat="1">
-      <c r="A131" s="504"/>
+      <c r="A131" s="498"/>
       <c r="B131" s="127" t="s">
         <v>1125</v>
       </c>
@@ -32320,7 +32170,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" s="13" customFormat="1">
-      <c r="A132" s="504"/>
+      <c r="A132" s="498"/>
       <c r="B132" s="129" t="s">
         <v>1128</v>
       </c>
@@ -32335,7 +32185,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" s="13" customFormat="1">
-      <c r="A133" s="504"/>
+      <c r="A133" s="498"/>
       <c r="B133" s="122" t="s">
         <v>1132</v>
       </c>
@@ -32348,7 +32198,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A134" s="504"/>
+      <c r="A134" s="498"/>
       <c r="B134" s="122" t="s">
         <v>1136</v>
       </c>
@@ -32361,7 +32211,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" s="13" customFormat="1">
-      <c r="A135" s="504"/>
+      <c r="A135" s="498"/>
       <c r="B135" s="122" t="s">
         <v>1139</v>
       </c>
@@ -32374,7 +32224,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" s="13" customFormat="1">
-      <c r="A136" s="504"/>
+      <c r="A136" s="498"/>
       <c r="B136" s="122" t="s">
         <v>1142</v>
       </c>
@@ -32387,7 +32237,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" s="13" customFormat="1">
-      <c r="A137" s="505"/>
+      <c r="A137" s="499"/>
       <c r="B137" s="133" t="s">
         <v>1145</v>
       </c>
@@ -32402,7 +32252,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" s="13" customFormat="1">
-      <c r="A138" s="475" t="s">
+      <c r="A138" s="470" t="s">
         <v>675</v>
       </c>
       <c r="B138" s="136" t="s">
@@ -32417,7 +32267,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" s="13" customFormat="1">
-      <c r="A139" s="473"/>
+      <c r="A139" s="471"/>
       <c r="B139" s="139" t="s">
         <v>1154</v>
       </c>
@@ -32430,7 +32280,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" s="13" customFormat="1">
-      <c r="A140" s="473"/>
+      <c r="A140" s="471"/>
       <c r="B140" s="139" t="s">
         <v>1156</v>
       </c>
@@ -32443,7 +32293,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" s="13" customFormat="1">
-      <c r="A141" s="473"/>
+      <c r="A141" s="471"/>
       <c r="B141" s="136" t="s">
         <v>1160</v>
       </c>
@@ -32456,7 +32306,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" s="13" customFormat="1">
-      <c r="A142" s="473"/>
+      <c r="A142" s="471"/>
       <c r="B142" s="136" t="s">
         <v>1163</v>
       </c>
@@ -32469,7 +32319,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" s="13" customFormat="1">
-      <c r="A143" s="473"/>
+      <c r="A143" s="471"/>
       <c r="B143" s="139" t="s">
         <v>1166</v>
       </c>
@@ -32482,7 +32332,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" s="13" customFormat="1">
-      <c r="A144" s="473"/>
+      <c r="A144" s="471"/>
       <c r="B144" s="139" t="s">
         <v>1169</v>
       </c>
@@ -32495,7 +32345,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" s="13" customFormat="1">
-      <c r="A145" s="473"/>
+      <c r="A145" s="471"/>
       <c r="B145" s="139" t="s">
         <v>1172</v>
       </c>
@@ -32508,7 +32358,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" s="13" customFormat="1">
-      <c r="A146" s="473"/>
+      <c r="A146" s="471"/>
       <c r="B146" s="139" t="s">
         <v>1175</v>
       </c>
@@ -32521,7 +32371,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="13" customFormat="1">
-      <c r="A147" s="474"/>
+      <c r="A147" s="472"/>
       <c r="B147" s="136" t="s">
         <v>1178</v>
       </c>
@@ -32534,7 +32384,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" s="13" customFormat="1" ht="42.75">
-      <c r="A148" s="475" t="s">
+      <c r="A148" s="470" t="s">
         <v>738</v>
       </c>
       <c r="B148" s="144" t="s">
@@ -32551,7 +32401,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" s="13" customFormat="1">
-      <c r="A149" s="473"/>
+      <c r="A149" s="471"/>
       <c r="B149" s="144" t="s">
         <v>1187</v>
       </c>
@@ -32566,7 +32416,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" s="13" customFormat="1">
-      <c r="A150" s="473"/>
+      <c r="A150" s="471"/>
       <c r="B150" s="144" t="s">
         <v>1191</v>
       </c>
@@ -32579,7 +32429,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" s="13" customFormat="1">
-      <c r="A151" s="473"/>
+      <c r="A151" s="471"/>
       <c r="B151" s="144" t="s">
         <v>1194</v>
       </c>
@@ -32594,7 +32444,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" s="13" customFormat="1">
-      <c r="A152" s="473"/>
+      <c r="A152" s="471"/>
       <c r="B152" s="144" t="s">
         <v>1198</v>
       </c>
@@ -32609,7 +32459,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" s="13" customFormat="1">
-      <c r="A153" s="473"/>
+      <c r="A153" s="471"/>
       <c r="B153" s="148" t="s">
         <v>1201</v>
       </c>
@@ -32622,7 +32472,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A154" s="473"/>
+      <c r="A154" s="471"/>
       <c r="B154" s="144" t="s">
         <v>1204</v>
       </c>
@@ -32637,7 +32487,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" s="13" customFormat="1">
-      <c r="A155" s="473"/>
+      <c r="A155" s="471"/>
       <c r="B155" s="148" t="s">
         <v>1207</v>
       </c>
@@ -32652,7 +32502,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" s="13" customFormat="1">
-      <c r="A156" s="474"/>
+      <c r="A156" s="472"/>
       <c r="B156" s="144" t="s">
         <v>1210</v>
       </c>
@@ -32665,7 +32515,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A157" s="475" t="s">
+      <c r="A157" s="470" t="s">
         <v>710</v>
       </c>
       <c r="B157" s="155" t="s">
@@ -32680,7 +32530,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A158" s="473"/>
+      <c r="A158" s="471"/>
       <c r="B158" s="157" t="s">
         <v>1218</v>
       </c>
@@ -32693,7 +32543,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A159" s="473"/>
+      <c r="A159" s="471"/>
       <c r="B159" s="157" t="s">
         <v>1219</v>
       </c>
@@ -32706,7 +32556,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" s="13" customFormat="1">
-      <c r="A160" s="473"/>
+      <c r="A160" s="471"/>
       <c r="B160" s="158" t="s">
         <v>1220</v>
       </c>
@@ -32719,7 +32569,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" s="13" customFormat="1">
-      <c r="A161" s="473"/>
+      <c r="A161" s="471"/>
       <c r="B161" s="158" t="s">
         <v>1224</v>
       </c>
@@ -32734,7 +32584,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A162" s="474"/>
+      <c r="A162" s="472"/>
       <c r="B162" s="158" t="s">
         <v>1227</v>
       </c>
@@ -32749,7 +32599,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A163" s="475" t="s">
+      <c r="A163" s="470" t="s">
         <v>706</v>
       </c>
       <c r="B163" s="155" t="s">
@@ -32764,7 +32614,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" s="13" customFormat="1">
-      <c r="A164" s="473"/>
+      <c r="A164" s="471"/>
       <c r="B164" s="155" t="s">
         <v>1234</v>
       </c>
@@ -32779,7 +32629,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" s="13" customFormat="1">
-      <c r="A165" s="473"/>
+      <c r="A165" s="471"/>
       <c r="B165" s="155" t="s">
         <v>1237</v>
       </c>
@@ -32794,7 +32644,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" s="13" customFormat="1">
-      <c r="A166" s="473"/>
+      <c r="A166" s="471"/>
       <c r="B166" s="161" t="s">
         <v>1240</v>
       </c>
@@ -32822,7 +32672,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A168" s="471" t="s">
+      <c r="A168" s="473" t="s">
         <v>737</v>
       </c>
       <c r="B168" s="125" t="s">
@@ -32837,7 +32687,7 @@
       <c r="E168" s="124"/>
     </row>
     <row r="169" spans="1:5" s="13" customFormat="1" ht="42.75">
-      <c r="A169" s="472"/>
+      <c r="A169" s="466"/>
       <c r="B169" s="135" t="s">
         <v>1253</v>
       </c>
@@ -32850,7 +32700,7 @@
       <c r="E169" s="167"/>
     </row>
     <row r="170" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A170" s="472"/>
+      <c r="A170" s="466"/>
       <c r="B170" s="135" t="s">
         <v>1256</v>
       </c>
@@ -32863,7 +32713,7 @@
       <c r="E170" s="167"/>
     </row>
     <row r="171" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A171" s="477"/>
+      <c r="A171" s="467"/>
       <c r="B171" s="135" t="s">
         <v>1259</v>
       </c>
@@ -32876,7 +32726,7 @@
       <c r="E171" s="167"/>
     </row>
     <row r="172" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A172" s="462" t="s">
+      <c r="A172" s="468" t="s">
         <v>1262</v>
       </c>
       <c r="B172" s="71" t="s">
@@ -32893,7 +32743,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A173" s="462"/>
+      <c r="A173" s="468"/>
       <c r="B173" s="71" t="s">
         <v>1269</v>
       </c>
@@ -32908,7 +32758,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" s="13" customFormat="1">
-      <c r="A174" s="462"/>
+      <c r="A174" s="468"/>
       <c r="B174" s="169" t="s">
         <v>1274</v>
       </c>
@@ -32921,7 +32771,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" s="13" customFormat="1">
-      <c r="A175" s="462"/>
+      <c r="A175" s="468"/>
       <c r="B175" s="40" t="s">
         <v>1277</v>
       </c>
@@ -32934,7 +32784,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" s="13" customFormat="1" ht="31.5">
-      <c r="A176" s="462"/>
+      <c r="A176" s="468"/>
       <c r="B176" s="173" t="s">
         <v>1280</v>
       </c>
@@ -32947,7 +32797,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" s="13" customFormat="1" ht="31.5">
-      <c r="A177" s="462"/>
+      <c r="A177" s="468"/>
       <c r="B177" s="114" t="s">
         <v>1283</v>
       </c>
@@ -32960,7 +32810,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" s="13" customFormat="1" ht="15.75">
-      <c r="A178" s="462"/>
+      <c r="A178" s="468"/>
       <c r="B178" s="49" t="s">
         <v>1285</v>
       </c>
@@ -32973,7 +32823,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" s="13" customFormat="1">
-      <c r="A179" s="462" t="s">
+      <c r="A179" s="468" t="s">
         <v>661</v>
       </c>
       <c r="B179" s="69" t="s">
@@ -32988,7 +32838,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" s="13" customFormat="1">
-      <c r="A180" s="462"/>
+      <c r="A180" s="468"/>
       <c r="B180" s="69" t="s">
         <v>1292</v>
       </c>
@@ -33001,7 +32851,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" s="13" customFormat="1">
-      <c r="A181" s="462"/>
+      <c r="A181" s="468"/>
       <c r="B181" s="69" t="s">
         <v>1295</v>
       </c>
@@ -33014,7 +32864,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" s="13" customFormat="1">
-      <c r="A182" s="462" t="s">
+      <c r="A182" s="468" t="s">
         <v>763</v>
       </c>
       <c r="B182" s="178" t="s">
@@ -33029,7 +32879,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A183" s="462"/>
+      <c r="A183" s="468"/>
       <c r="B183" s="181" t="s">
         <v>1306</v>
       </c>
@@ -33042,7 +32892,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A184" s="462"/>
+      <c r="A184" s="468"/>
       <c r="B184" s="181" t="s">
         <v>1309</v>
       </c>
@@ -33057,7 +32907,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" s="13" customFormat="1" ht="25.5">
-      <c r="A185" s="462"/>
+      <c r="A185" s="468"/>
       <c r="B185" s="181" t="s">
         <v>1313</v>
       </c>
@@ -33070,7 +32920,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A186" s="462" t="s">
+      <c r="A186" s="468" t="s">
         <v>658</v>
       </c>
       <c r="B186" s="59" t="s">
@@ -33085,7 +32935,7 @@
       <c r="E186" s="58"/>
     </row>
     <row r="187" spans="1:5" s="13" customFormat="1">
-      <c r="A187" s="462"/>
+      <c r="A187" s="468"/>
       <c r="B187" s="59" t="s">
         <v>1321</v>
       </c>
@@ -33098,7 +32948,7 @@
       <c r="E187" s="58"/>
     </row>
     <row r="188" spans="1:5" s="13" customFormat="1" ht="28.5">
-      <c r="A188" s="462"/>
+      <c r="A188" s="468"/>
       <c r="B188" s="59" t="s">
         <v>1324</v>
       </c>
@@ -33112,32 +32962,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A90:A102"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A126"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A61:A73"/>
-    <mergeCell ref="A74:A77"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A15:A27"/>
     <mergeCell ref="A28:A37"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A90:A102"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A126"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A186:A188"/>
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
   <conditionalFormatting sqref="C1:C165 C167:C1048576">
@@ -33462,10 +33312,10 @@
   <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F70" sqref="F70:F75"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -40930,13 +40780,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="461"/>
-      <c r="C1" s="461"/>
-      <c r="D1" s="461"/>
-      <c r="E1" s="461"/>
-      <c r="F1" s="461"/>
-      <c r="G1" s="461"/>
-      <c r="H1" s="461"/>
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="474"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" s="16" t="s">
@@ -40975,7 +40825,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="42.75" hidden="1">
-      <c r="A3" s="462" t="s">
+      <c r="A3" s="468" t="s">
         <v>619</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -40994,10 +40844,10 @@
         <v>624</v>
       </c>
       <c r="G3" s="297"/>
-      <c r="H3" s="464" t="s">
+      <c r="H3" s="476" t="s">
         <v>625</v>
       </c>
-      <c r="I3" s="479" t="s">
+      <c r="I3" s="461" t="s">
         <v>626</v>
       </c>
       <c r="J3" s="332" t="s">
@@ -41009,7 +40859,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.5" hidden="1">
-      <c r="A4" s="462"/>
+      <c r="A4" s="468"/>
       <c r="B4" s="19" t="s">
         <v>628</v>
       </c>
@@ -41022,8 +40872,8 @@
       <c r="E4" s="299"/>
       <c r="F4" s="300"/>
       <c r="G4" s="297"/>
-      <c r="H4" s="464"/>
-      <c r="I4" s="479"/>
+      <c r="H4" s="476"/>
+      <c r="I4" s="461"/>
       <c r="J4" s="332" t="s">
         <v>631</v>
       </c>
@@ -41033,7 +40883,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="42.75" hidden="1">
-      <c r="A5" s="462"/>
+      <c r="A5" s="468"/>
       <c r="B5" s="19" t="s">
         <v>632</v>
       </c>
@@ -41046,8 +40896,8 @@
       </c>
       <c r="F5" s="301"/>
       <c r="G5" s="297"/>
-      <c r="H5" s="464"/>
-      <c r="I5" s="479"/>
+      <c r="H5" s="476"/>
+      <c r="I5" s="461"/>
       <c r="J5" s="332" t="s">
         <v>635</v>
       </c>
@@ -41091,7 +40941,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="42.75" hidden="1">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="468" t="s">
         <v>627</v>
       </c>
       <c r="B7" s="307" t="s">
@@ -41110,10 +40960,10 @@
       <c r="G7" s="297">
         <v>16</v>
       </c>
-      <c r="H7" s="465" t="s">
+      <c r="H7" s="477" t="s">
         <v>649</v>
       </c>
-      <c r="I7" s="479" t="s">
+      <c r="I7" s="461" t="s">
         <v>650</v>
       </c>
       <c r="J7" s="332" t="s">
@@ -41125,7 +40975,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="42.75" hidden="1">
-      <c r="A8" s="462"/>
+      <c r="A8" s="468"/>
       <c r="B8" s="307" t="s">
         <v>653</v>
       </c>
@@ -41138,8 +40988,8 @@
       <c r="E8" s="310"/>
       <c r="F8" s="297"/>
       <c r="G8" s="297"/>
-      <c r="H8" s="466"/>
-      <c r="I8" s="479"/>
+      <c r="H8" s="478"/>
+      <c r="I8" s="461"/>
       <c r="J8" s="332" t="s">
         <v>655</v>
       </c>
@@ -41149,7 +40999,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" hidden="1">
-      <c r="A9" s="462"/>
+      <c r="A9" s="468"/>
       <c r="B9" s="24" t="s">
         <v>656</v>
       </c>
@@ -41159,11 +41009,11 @@
       <c r="D9" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="E9" s="463"/>
+      <c r="E9" s="475"/>
       <c r="F9" s="297"/>
       <c r="G9" s="297"/>
-      <c r="H9" s="466"/>
-      <c r="I9" s="479"/>
+      <c r="H9" s="478"/>
+      <c r="I9" s="461"/>
       <c r="J9" s="332" t="s">
         <v>658</v>
       </c>
@@ -41173,7 +41023,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="42.75" hidden="1">
-      <c r="A10" s="462"/>
+      <c r="A10" s="468"/>
       <c r="B10" s="24" t="s">
         <v>659</v>
       </c>
@@ -41183,11 +41033,11 @@
       <c r="D10" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="E10" s="463"/>
+      <c r="E10" s="475"/>
       <c r="F10" s="297"/>
       <c r="G10" s="297"/>
-      <c r="H10" s="466"/>
-      <c r="I10" s="479"/>
+      <c r="H10" s="478"/>
+      <c r="I10" s="461"/>
       <c r="J10" s="332" t="s">
         <v>661</v>
       </c>
@@ -41197,7 +41047,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="42.75" hidden="1">
-      <c r="A11" s="462"/>
+      <c r="A11" s="468"/>
       <c r="B11" s="24" t="s">
         <v>662</v>
       </c>
@@ -41210,8 +41060,8 @@
       <c r="E11" s="311"/>
       <c r="F11" s="297"/>
       <c r="G11" s="297"/>
-      <c r="H11" s="466"/>
-      <c r="I11" s="479"/>
+      <c r="H11" s="478"/>
+      <c r="I11" s="461"/>
       <c r="J11" s="332" t="s">
         <v>664</v>
       </c>
@@ -41221,7 +41071,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="42.75" hidden="1">
-      <c r="A12" s="462"/>
+      <c r="A12" s="468"/>
       <c r="B12" s="24" t="s">
         <v>666</v>
       </c>
@@ -41234,8 +41084,8 @@
       <c r="E12" s="312"/>
       <c r="F12" s="297"/>
       <c r="G12" s="297"/>
-      <c r="H12" s="467"/>
-      <c r="I12" s="479"/>
+      <c r="H12" s="479"/>
+      <c r="I12" s="461"/>
       <c r="J12" s="332" t="s">
         <v>668</v>
       </c>
@@ -41305,7 +41155,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="25.5" hidden="1">
-      <c r="A15" s="462" t="s">
+      <c r="A15" s="468" t="s">
         <v>655</v>
       </c>
       <c r="B15" s="314" t="s">
@@ -41326,7 +41176,7 @@
       <c r="G15" s="297">
         <v>30</v>
       </c>
-      <c r="H15" s="464" t="s">
+      <c r="H15" s="476" t="s">
         <v>688</v>
       </c>
       <c r="J15" s="332" t="s">
@@ -41338,7 +41188,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="25.5" hidden="1">
-      <c r="A16" s="462"/>
+      <c r="A16" s="468"/>
       <c r="B16" s="314" t="s">
         <v>690</v>
       </c>
@@ -41353,7 +41203,7 @@
       </c>
       <c r="F16" s="297"/>
       <c r="G16" s="297"/>
-      <c r="H16" s="464"/>
+      <c r="H16" s="476"/>
       <c r="J16" s="332" t="s">
         <v>693</v>
       </c>
@@ -41363,7 +41213,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="25.5" hidden="1">
-      <c r="A17" s="462"/>
+      <c r="A17" s="468"/>
       <c r="B17" s="33" t="s">
         <v>695</v>
       </c>
@@ -41380,7 +41230,7 @@
         <v>698</v>
       </c>
       <c r="G17" s="297"/>
-      <c r="H17" s="466" t="s">
+      <c r="H17" s="478" t="s">
         <v>699</v>
       </c>
       <c r="J17" s="332" t="s">
@@ -41392,7 +41242,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="25.5" hidden="1">
-      <c r="A18" s="462"/>
+      <c r="A18" s="468"/>
       <c r="B18" s="35" t="s">
         <v>700</v>
       </c>
@@ -41407,7 +41257,7 @@
       </c>
       <c r="F18" s="297"/>
       <c r="G18" s="297"/>
-      <c r="H18" s="466"/>
+      <c r="H18" s="478"/>
       <c r="J18" s="332" t="s">
         <v>694</v>
       </c>
@@ -41417,7 +41267,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="25.5" hidden="1">
-      <c r="A19" s="462"/>
+      <c r="A19" s="468"/>
       <c r="B19" s="33" t="s">
         <v>703</v>
       </c>
@@ -41432,7 +41282,7 @@
       </c>
       <c r="F19" s="297"/>
       <c r="G19" s="297"/>
-      <c r="H19" s="466"/>
+      <c r="H19" s="478"/>
       <c r="J19" s="332" t="s">
         <v>706</v>
       </c>
@@ -41442,7 +41292,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="25.5" hidden="1">
-      <c r="A20" s="462"/>
+      <c r="A20" s="468"/>
       <c r="B20" s="33" t="s">
         <v>707</v>
       </c>
@@ -41455,7 +41305,7 @@
       </c>
       <c r="F20" s="297"/>
       <c r="G20" s="297"/>
-      <c r="H20" s="466"/>
+      <c r="H20" s="478"/>
       <c r="J20" s="332" t="s">
         <v>710</v>
       </c>
@@ -41465,7 +41315,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="25.5" hidden="1">
-      <c r="A21" s="462"/>
+      <c r="A21" s="468"/>
       <c r="B21" s="33" t="s">
         <v>712</v>
       </c>
@@ -41482,7 +41332,7 @@
         <v>715</v>
       </c>
       <c r="G21" s="297"/>
-      <c r="H21" s="466"/>
+      <c r="H21" s="478"/>
       <c r="J21" s="332" t="s">
         <v>716</v>
       </c>
@@ -41492,7 +41342,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1">
-      <c r="A22" s="462"/>
+      <c r="A22" s="468"/>
       <c r="B22" s="33" t="s">
         <v>717</v>
       </c>
@@ -41505,7 +41355,7 @@
       </c>
       <c r="F22" s="297"/>
       <c r="G22" s="297"/>
-      <c r="H22" s="466"/>
+      <c r="H22" s="478"/>
       <c r="J22" s="332" t="s">
         <v>689</v>
       </c>
@@ -41515,7 +41365,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="128.25" hidden="1">
-      <c r="A23" s="462"/>
+      <c r="A23" s="468"/>
       <c r="B23" s="33" t="s">
         <v>721</v>
       </c>
@@ -41530,7 +41380,7 @@
       </c>
       <c r="F23" s="297"/>
       <c r="G23" s="297"/>
-      <c r="H23" s="466"/>
+      <c r="H23" s="478"/>
       <c r="J23" s="332" t="s">
         <v>725</v>
       </c>
@@ -41542,7 +41392,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1">
-      <c r="A24" s="462"/>
+      <c r="A24" s="468"/>
       <c r="B24" s="33" t="s">
         <v>728</v>
       </c>
@@ -41557,7 +41407,7 @@
       </c>
       <c r="F24" s="297"/>
       <c r="G24" s="297"/>
-      <c r="H24" s="466"/>
+      <c r="H24" s="478"/>
       <c r="J24" s="332" t="s">
         <v>727</v>
       </c>
@@ -41567,7 +41417,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="25.5" hidden="1">
-      <c r="A25" s="462"/>
+      <c r="A25" s="468"/>
       <c r="B25" s="33" t="s">
         <v>732</v>
       </c>
@@ -41580,7 +41430,7 @@
       </c>
       <c r="F25" s="297"/>
       <c r="G25" s="297"/>
-      <c r="H25" s="466"/>
+      <c r="H25" s="478"/>
       <c r="J25" s="332" t="s">
         <v>720</v>
       </c>
@@ -41590,7 +41440,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="25.5" hidden="1">
-      <c r="A26" s="462"/>
+      <c r="A26" s="468"/>
       <c r="B26" s="35" t="s">
         <v>734</v>
       </c>
@@ -41605,7 +41455,7 @@
       </c>
       <c r="F26" s="297"/>
       <c r="G26" s="297"/>
-      <c r="H26" s="466"/>
+      <c r="H26" s="478"/>
       <c r="J26" s="332" t="s">
         <v>737</v>
       </c>
@@ -41615,7 +41465,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1">
-      <c r="A27" s="462"/>
+      <c r="A27" s="468"/>
       <c r="B27" s="35" t="s">
         <v>739</v>
       </c>
@@ -41628,7 +41478,7 @@
       </c>
       <c r="F27" s="297"/>
       <c r="G27" s="297"/>
-      <c r="H27" s="467"/>
+      <c r="H27" s="479"/>
       <c r="J27" s="332" t="s">
         <v>738</v>
       </c>
@@ -41638,7 +41488,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="42.75" hidden="1">
-      <c r="A28" s="462" t="s">
+      <c r="A28" s="468" t="s">
         <v>635</v>
       </c>
       <c r="B28" s="37" t="s">
@@ -41653,7 +41503,7 @@
       <c r="E28" s="319"/>
       <c r="F28" s="297"/>
       <c r="G28" s="297"/>
-      <c r="H28" s="468" t="s">
+      <c r="H28" s="458" t="s">
         <v>745</v>
       </c>
       <c r="J28" s="332" t="s">
@@ -41667,7 +41517,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.5" hidden="1">
-      <c r="A29" s="462"/>
+      <c r="A29" s="468"/>
       <c r="B29" s="37" t="s">
         <v>748</v>
       </c>
@@ -41680,7 +41530,7 @@
       <c r="E29" s="319"/>
       <c r="F29" s="297"/>
       <c r="G29" s="297"/>
-      <c r="H29" s="469"/>
+      <c r="H29" s="459"/>
       <c r="J29" s="332" t="s">
         <v>731</v>
       </c>
@@ -41690,7 +41540,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" hidden="1">
-      <c r="A30" s="462"/>
+      <c r="A30" s="468"/>
       <c r="B30" s="37" t="s">
         <v>752</v>
       </c>
@@ -41703,7 +41553,7 @@
       <c r="E30" s="319"/>
       <c r="F30" s="297"/>
       <c r="G30" s="297"/>
-      <c r="H30" s="469"/>
+      <c r="H30" s="459"/>
       <c r="J30" s="332" t="s">
         <v>652</v>
       </c>
@@ -41713,7 +41563,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="85.5" hidden="1">
-      <c r="A31" s="462"/>
+      <c r="A31" s="468"/>
       <c r="B31" s="37" t="s">
         <v>755</v>
       </c>
@@ -41726,7 +41576,7 @@
       <c r="E31" s="319"/>
       <c r="F31" s="297"/>
       <c r="G31" s="297"/>
-      <c r="H31" s="469"/>
+      <c r="H31" s="459"/>
       <c r="J31" s="332" t="s">
         <v>758</v>
       </c>
@@ -41738,7 +41588,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.5" hidden="1">
-      <c r="A32" s="462"/>
+      <c r="A32" s="468"/>
       <c r="B32" s="37" t="s">
         <v>760</v>
       </c>
@@ -41751,7 +41601,7 @@
       <c r="E32" s="319"/>
       <c r="F32" s="297"/>
       <c r="G32" s="297"/>
-      <c r="H32" s="469"/>
+      <c r="H32" s="459"/>
       <c r="J32" s="332" t="s">
         <v>763</v>
       </c>
@@ -41761,7 +41611,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="228" hidden="1">
-      <c r="A33" s="462"/>
+      <c r="A33" s="468"/>
       <c r="B33" s="37" t="s">
         <v>764</v>
       </c>
@@ -41774,7 +41624,7 @@
       <c r="E33" s="319"/>
       <c r="F33" s="297"/>
       <c r="G33" s="297"/>
-      <c r="H33" s="469"/>
+      <c r="H33" s="459"/>
       <c r="J33" s="332" t="s">
         <v>767</v>
       </c>
@@ -41786,7 +41636,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" hidden="1">
-      <c r="A34" s="462"/>
+      <c r="A34" s="468"/>
       <c r="B34" s="37" t="s">
         <v>769</v>
       </c>
@@ -41799,7 +41649,7 @@
       <c r="E34" s="319"/>
       <c r="F34" s="297"/>
       <c r="G34" s="297"/>
-      <c r="H34" s="469"/>
+      <c r="H34" s="459"/>
       <c r="J34" s="332" t="s">
         <v>772</v>
       </c>
@@ -41811,7 +41661,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="42.75" hidden="1">
-      <c r="A35" s="462"/>
+      <c r="A35" s="468"/>
       <c r="B35" s="37" t="s">
         <v>774</v>
       </c>
@@ -41824,7 +41674,7 @@
       <c r="E35" s="319"/>
       <c r="F35" s="297"/>
       <c r="G35" s="297"/>
-      <c r="H35" s="469"/>
+      <c r="H35" s="459"/>
       <c r="J35" s="332" t="s">
         <v>777</v>
       </c>
@@ -41832,7 +41682,7 @@
       <c r="L35" s="297"/>
     </row>
     <row r="36" spans="1:12" ht="114" hidden="1">
-      <c r="A36" s="462"/>
+      <c r="A36" s="468"/>
       <c r="B36" s="37" t="s">
         <v>778</v>
       </c>
@@ -41845,7 +41695,7 @@
       <c r="E36" s="319"/>
       <c r="F36" s="297"/>
       <c r="G36" s="297"/>
-      <c r="H36" s="469"/>
+      <c r="H36" s="459"/>
       <c r="J36" s="332" t="s">
         <v>781</v>
       </c>
@@ -41855,7 +41705,7 @@
       <c r="L36" s="297"/>
     </row>
     <row r="37" spans="1:12" ht="28.5" hidden="1">
-      <c r="A37" s="462"/>
+      <c r="A37" s="468"/>
       <c r="B37" s="37" t="s">
         <v>783</v>
       </c>
@@ -41868,10 +41718,10 @@
       <c r="E37" s="319"/>
       <c r="F37" s="297"/>
       <c r="G37" s="297"/>
-      <c r="H37" s="470"/>
+      <c r="H37" s="460"/>
     </row>
     <row r="38" spans="1:12" ht="114">
-      <c r="A38" s="462" t="s">
+      <c r="A38" s="468" t="s">
         <v>643</v>
       </c>
       <c r="B38" s="40" t="s">
@@ -41886,7 +41736,7 @@
       </c>
       <c r="F38" s="297"/>
       <c r="G38" s="297"/>
-      <c r="H38" s="468" t="s">
+      <c r="H38" s="458" t="s">
         <v>789</v>
       </c>
       <c r="J38" s="332" t="s">
@@ -41898,7 +41748,7 @@
       <c r="L38" s="297"/>
     </row>
     <row r="39" spans="1:12" ht="28.5">
-      <c r="A39" s="462"/>
+      <c r="A39" s="468"/>
       <c r="B39" s="40" t="s">
         <v>792</v>
       </c>
@@ -41913,10 +41763,10 @@
       </c>
       <c r="F39" s="297"/>
       <c r="G39" s="297"/>
-      <c r="H39" s="469"/>
+      <c r="H39" s="459"/>
     </row>
     <row r="40" spans="1:12" ht="42.75">
-      <c r="A40" s="462"/>
+      <c r="A40" s="468"/>
       <c r="B40" s="40" t="s">
         <v>796</v>
       </c>
@@ -41931,10 +41781,10 @@
       </c>
       <c r="F40" s="297"/>
       <c r="G40" s="297"/>
-      <c r="H40" s="469"/>
+      <c r="H40" s="459"/>
     </row>
     <row r="41" spans="1:12" ht="28.5">
-      <c r="A41" s="462"/>
+      <c r="A41" s="468"/>
       <c r="B41" s="322" t="s">
         <v>800</v>
       </c>
@@ -41951,12 +41801,12 @@
         <v>804</v>
       </c>
       <c r="G41" s="297"/>
-      <c r="H41" s="469"/>
+      <c r="H41" s="459"/>
       <c r="J41" s="333"/>
       <c r="K41" s="333"/>
     </row>
     <row r="42" spans="1:12" ht="28.5">
-      <c r="A42" s="462"/>
+      <c r="A42" s="468"/>
       <c r="B42" s="40" t="s">
         <v>805</v>
       </c>
@@ -41971,10 +41821,10 @@
       </c>
       <c r="F42" s="297"/>
       <c r="G42" s="297"/>
-      <c r="H42" s="469"/>
+      <c r="H42" s="459"/>
     </row>
     <row r="43" spans="1:12" ht="28.5">
-      <c r="A43" s="462"/>
+      <c r="A43" s="468"/>
       <c r="B43" s="40" t="s">
         <v>809</v>
       </c>
@@ -41989,10 +41839,10 @@
       </c>
       <c r="F43" s="297"/>
       <c r="G43" s="297"/>
-      <c r="H43" s="469"/>
+      <c r="H43" s="459"/>
     </row>
     <row r="44" spans="1:12" ht="28.5">
-      <c r="A44" s="462"/>
+      <c r="A44" s="468"/>
       <c r="B44" s="40" t="s">
         <v>813</v>
       </c>
@@ -42007,10 +41857,10 @@
       </c>
       <c r="F44" s="297"/>
       <c r="G44" s="297"/>
-      <c r="H44" s="469"/>
+      <c r="H44" s="459"/>
     </row>
     <row r="45" spans="1:12" ht="42.75">
-      <c r="A45" s="462"/>
+      <c r="A45" s="468"/>
       <c r="B45" s="40" t="s">
         <v>817</v>
       </c>
@@ -42023,10 +41873,10 @@
       </c>
       <c r="F45" s="297"/>
       <c r="G45" s="297"/>
-      <c r="H45" s="469"/>
+      <c r="H45" s="459"/>
     </row>
     <row r="46" spans="1:12" ht="28.5">
-      <c r="A46" s="462"/>
+      <c r="A46" s="468"/>
       <c r="B46" s="40" t="s">
         <v>820</v>
       </c>
@@ -42041,10 +41891,10 @@
       </c>
       <c r="F46" s="297"/>
       <c r="G46" s="297"/>
-      <c r="H46" s="470"/>
+      <c r="H46" s="460"/>
     </row>
     <row r="47" spans="1:12" ht="25.5" hidden="1">
-      <c r="A47" s="462" t="s">
+      <c r="A47" s="468" t="s">
         <v>665</v>
       </c>
       <c r="B47" s="46" t="s">
@@ -42061,12 +41911,12 @@
       </c>
       <c r="F47" s="297"/>
       <c r="G47" s="297"/>
-      <c r="H47" s="468" t="s">
+      <c r="H47" s="458" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="25.5" hidden="1">
-      <c r="A48" s="462"/>
+      <c r="A48" s="468"/>
       <c r="B48" s="46" t="s">
         <v>828</v>
       </c>
@@ -42079,10 +41929,10 @@
       </c>
       <c r="F48" s="297"/>
       <c r="G48" s="297"/>
-      <c r="H48" s="469"/>
+      <c r="H48" s="459"/>
     </row>
     <row r="49" spans="1:8" ht="25.5" hidden="1">
-      <c r="A49" s="462"/>
+      <c r="A49" s="468"/>
       <c r="B49" s="46" t="s">
         <v>831</v>
       </c>
@@ -42095,10 +41945,10 @@
       </c>
       <c r="F49" s="297"/>
       <c r="G49" s="297"/>
-      <c r="H49" s="469"/>
+      <c r="H49" s="459"/>
     </row>
     <row r="50" spans="1:8" ht="25.5" hidden="1">
-      <c r="A50" s="462"/>
+      <c r="A50" s="468"/>
       <c r="B50" s="49" t="s">
         <v>833</v>
       </c>
@@ -42111,10 +41961,10 @@
       </c>
       <c r="F50" s="297"/>
       <c r="G50" s="297"/>
-      <c r="H50" s="469"/>
+      <c r="H50" s="459"/>
     </row>
     <row r="51" spans="1:8" ht="25.5" hidden="1">
-      <c r="A51" s="462"/>
+      <c r="A51" s="468"/>
       <c r="B51" s="46" t="s">
         <v>836</v>
       </c>
@@ -42127,10 +41977,10 @@
       </c>
       <c r="F51" s="297"/>
       <c r="G51" s="297"/>
-      <c r="H51" s="469"/>
+      <c r="H51" s="459"/>
     </row>
     <row r="52" spans="1:8" ht="38.25" hidden="1">
-      <c r="A52" s="462"/>
+      <c r="A52" s="468"/>
       <c r="B52" s="46" t="s">
         <v>839</v>
       </c>
@@ -42143,10 +41993,10 @@
       </c>
       <c r="F52" s="297"/>
       <c r="G52" s="297"/>
-      <c r="H52" s="469"/>
+      <c r="H52" s="459"/>
     </row>
     <row r="53" spans="1:8" ht="25.5" hidden="1">
-      <c r="A53" s="462"/>
+      <c r="A53" s="468"/>
       <c r="B53" s="46" t="s">
         <v>842</v>
       </c>
@@ -42159,10 +42009,10 @@
       </c>
       <c r="F53" s="297"/>
       <c r="G53" s="297"/>
-      <c r="H53" s="470"/>
+      <c r="H53" s="460"/>
     </row>
     <row r="54" spans="1:8" ht="38.25" hidden="1">
-      <c r="A54" s="462" t="s">
+      <c r="A54" s="468" t="s">
         <v>669</v>
       </c>
       <c r="B54" s="51" t="s">
@@ -42179,12 +42029,12 @@
       </c>
       <c r="F54" s="297"/>
       <c r="G54" s="297"/>
-      <c r="H54" s="468" t="s">
+      <c r="H54" s="458" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="38.25" hidden="1">
-      <c r="A55" s="462"/>
+      <c r="A55" s="468"/>
       <c r="B55" s="51" t="s">
         <v>850</v>
       </c>
@@ -42197,10 +42047,10 @@
       </c>
       <c r="F55" s="297"/>
       <c r="G55" s="297"/>
-      <c r="H55" s="469"/>
+      <c r="H55" s="459"/>
     </row>
     <row r="56" spans="1:8" ht="25.5" hidden="1">
-      <c r="A56" s="462"/>
+      <c r="A56" s="468"/>
       <c r="B56" s="51" t="s">
         <v>853</v>
       </c>
@@ -42215,10 +42065,10 @@
       </c>
       <c r="F56" s="297"/>
       <c r="G56" s="297"/>
-      <c r="H56" s="469"/>
+      <c r="H56" s="459"/>
     </row>
     <row r="57" spans="1:8" ht="38.25" hidden="1">
-      <c r="A57" s="462"/>
+      <c r="A57" s="468"/>
       <c r="B57" s="51" t="s">
         <v>857</v>
       </c>
@@ -42233,10 +42083,10 @@
       </c>
       <c r="F57" s="297"/>
       <c r="G57" s="297"/>
-      <c r="H57" s="469"/>
+      <c r="H57" s="459"/>
     </row>
     <row r="58" spans="1:8" ht="25.5" hidden="1">
-      <c r="A58" s="462"/>
+      <c r="A58" s="468"/>
       <c r="B58" s="51" t="s">
         <v>861</v>
       </c>
@@ -42251,10 +42101,10 @@
       </c>
       <c r="F58" s="297"/>
       <c r="G58" s="297"/>
-      <c r="H58" s="469"/>
+      <c r="H58" s="459"/>
     </row>
     <row r="59" spans="1:8" ht="25.5" hidden="1">
-      <c r="A59" s="462"/>
+      <c r="A59" s="468"/>
       <c r="B59" s="51" t="s">
         <v>865</v>
       </c>
@@ -42267,7 +42117,7 @@
       </c>
       <c r="F59" s="297"/>
       <c r="G59" s="297"/>
-      <c r="H59" s="470"/>
+      <c r="H59" s="460"/>
     </row>
     <row r="60" spans="1:8" ht="28.5" hidden="1">
       <c r="A60" s="16" t="s">
@@ -42292,7 +42142,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.5" hidden="1">
-      <c r="A61" s="462" t="s">
+      <c r="A61" s="468" t="s">
         <v>682</v>
       </c>
       <c r="B61" s="60" t="s">
@@ -42307,12 +42157,12 @@
       <c r="E61" s="330"/>
       <c r="F61" s="297"/>
       <c r="G61" s="297"/>
-      <c r="H61" s="468" t="s">
+      <c r="H61" s="458" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="57" hidden="1">
-      <c r="A62" s="462"/>
+      <c r="A62" s="468"/>
       <c r="B62" s="60" t="s">
         <v>877</v>
       </c>
@@ -42325,10 +42175,10 @@
       <c r="E62" s="330"/>
       <c r="F62" s="297"/>
       <c r="G62" s="297"/>
-      <c r="H62" s="469"/>
+      <c r="H62" s="459"/>
     </row>
     <row r="63" spans="1:8" ht="28.5" hidden="1">
-      <c r="A63" s="462"/>
+      <c r="A63" s="468"/>
       <c r="B63" s="60" t="s">
         <v>880</v>
       </c>
@@ -42341,10 +42191,10 @@
       <c r="E63" s="331"/>
       <c r="F63" s="297"/>
       <c r="G63" s="297"/>
-      <c r="H63" s="469"/>
+      <c r="H63" s="459"/>
     </row>
     <row r="64" spans="1:8" ht="28.5" hidden="1">
-      <c r="A64" s="462"/>
+      <c r="A64" s="468"/>
       <c r="B64" s="60" t="s">
         <v>883</v>
       </c>
@@ -42357,10 +42207,10 @@
       <c r="E64" s="330"/>
       <c r="F64" s="297"/>
       <c r="G64" s="297"/>
-      <c r="H64" s="469"/>
+      <c r="H64" s="459"/>
     </row>
     <row r="65" spans="1:8" ht="28.5" hidden="1">
-      <c r="A65" s="462"/>
+      <c r="A65" s="468"/>
       <c r="B65" s="60" t="s">
         <v>886</v>
       </c>
@@ -42373,10 +42223,10 @@
       <c r="E65" s="330"/>
       <c r="F65" s="297"/>
       <c r="G65" s="297"/>
-      <c r="H65" s="469"/>
+      <c r="H65" s="459"/>
     </row>
     <row r="66" spans="1:8" ht="28.5" hidden="1">
-      <c r="A66" s="462"/>
+      <c r="A66" s="468"/>
       <c r="B66" s="62" t="s">
         <v>889</v>
       </c>
@@ -42389,10 +42239,10 @@
       <c r="E66" s="334"/>
       <c r="F66" s="297"/>
       <c r="G66" s="297"/>
-      <c r="H66" s="469"/>
+      <c r="H66" s="459"/>
     </row>
     <row r="67" spans="1:8" ht="28.5" hidden="1">
-      <c r="A67" s="462"/>
+      <c r="A67" s="468"/>
       <c r="B67" s="62" t="s">
         <v>892</v>
       </c>
@@ -42405,10 +42255,10 @@
       <c r="E67" s="334"/>
       <c r="F67" s="297"/>
       <c r="G67" s="297"/>
-      <c r="H67" s="469"/>
+      <c r="H67" s="459"/>
     </row>
     <row r="68" spans="1:8" ht="28.5" hidden="1">
-      <c r="A68" s="462"/>
+      <c r="A68" s="468"/>
       <c r="B68" s="62" t="s">
         <v>895</v>
       </c>
@@ -42421,10 +42271,10 @@
       <c r="E68" s="335"/>
       <c r="F68" s="297"/>
       <c r="G68" s="297"/>
-      <c r="H68" s="469"/>
+      <c r="H68" s="459"/>
     </row>
     <row r="69" spans="1:8" ht="28.5" hidden="1">
-      <c r="A69" s="462"/>
+      <c r="A69" s="468"/>
       <c r="B69" s="62" t="s">
         <v>898</v>
       </c>
@@ -42437,10 +42287,10 @@
       <c r="E69" s="335"/>
       <c r="F69" s="297"/>
       <c r="G69" s="297"/>
-      <c r="H69" s="469"/>
+      <c r="H69" s="459"/>
     </row>
     <row r="70" spans="1:8" ht="28.5" hidden="1">
-      <c r="A70" s="462"/>
+      <c r="A70" s="468"/>
       <c r="B70" s="60" t="s">
         <v>901</v>
       </c>
@@ -42453,10 +42303,10 @@
       <c r="E70" s="330"/>
       <c r="F70" s="297"/>
       <c r="G70" s="297"/>
-      <c r="H70" s="469"/>
+      <c r="H70" s="459"/>
     </row>
     <row r="71" spans="1:8" ht="57" hidden="1">
-      <c r="A71" s="462"/>
+      <c r="A71" s="468"/>
       <c r="B71" s="64" t="s">
         <v>904</v>
       </c>
@@ -42469,10 +42319,10 @@
       <c r="E71" s="336"/>
       <c r="F71" s="297"/>
       <c r="G71" s="297"/>
-      <c r="H71" s="469"/>
+      <c r="H71" s="459"/>
     </row>
     <row r="72" spans="1:8" ht="42.75" hidden="1">
-      <c r="A72" s="462"/>
+      <c r="A72" s="468"/>
       <c r="B72" s="64" t="s">
         <v>907</v>
       </c>
@@ -42485,10 +42335,10 @@
       <c r="E72" s="337"/>
       <c r="F72" s="297"/>
       <c r="G72" s="297"/>
-      <c r="H72" s="469"/>
+      <c r="H72" s="459"/>
     </row>
     <row r="73" spans="1:8" ht="42.75" hidden="1">
-      <c r="A73" s="462"/>
+      <c r="A73" s="468"/>
       <c r="B73" s="66" t="s">
         <v>910</v>
       </c>
@@ -42501,10 +42351,10 @@
       <c r="E73" s="339"/>
       <c r="F73" s="297"/>
       <c r="G73" s="297"/>
-      <c r="H73" s="470"/>
+      <c r="H73" s="460"/>
     </row>
     <row r="74" spans="1:8" ht="42.75" hidden="1">
-      <c r="A74" s="471" t="s">
+      <c r="A74" s="473" t="s">
         <v>689</v>
       </c>
       <c r="B74" s="69" t="s">
@@ -42519,12 +42369,12 @@
       </c>
       <c r="F74" s="297"/>
       <c r="G74" s="297"/>
-      <c r="H74" s="468" t="s">
+      <c r="H74" s="458" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="42.75" hidden="1">
-      <c r="A75" s="472"/>
+      <c r="A75" s="466"/>
       <c r="B75" s="71" t="s">
         <v>917</v>
       </c>
@@ -42537,10 +42387,10 @@
       </c>
       <c r="F75" s="297"/>
       <c r="G75" s="297"/>
-      <c r="H75" s="469"/>
+      <c r="H75" s="459"/>
     </row>
     <row r="76" spans="1:8" ht="28.5" hidden="1">
-      <c r="A76" s="472"/>
+      <c r="A76" s="466"/>
       <c r="B76" s="169" t="s">
         <v>920</v>
       </c>
@@ -42553,10 +42403,10 @@
       </c>
       <c r="F76" s="297"/>
       <c r="G76" s="297"/>
-      <c r="H76" s="469"/>
+      <c r="H76" s="459"/>
     </row>
     <row r="77" spans="1:8" ht="28.5" hidden="1">
-      <c r="A77" s="462"/>
+      <c r="A77" s="468"/>
       <c r="B77" s="69" t="s">
         <v>923</v>
       </c>
@@ -42569,10 +42419,10 @@
       </c>
       <c r="F77" s="297"/>
       <c r="G77" s="297"/>
-      <c r="H77" s="470"/>
+      <c r="H77" s="460"/>
     </row>
     <row r="78" spans="1:8" ht="28.5" hidden="1">
-      <c r="A78" s="462" t="s">
+      <c r="A78" s="468" t="s">
         <v>694</v>
       </c>
       <c r="B78" s="73" t="s">
@@ -42589,12 +42439,12 @@
       </c>
       <c r="F78" s="297"/>
       <c r="G78" s="297"/>
-      <c r="H78" s="468" t="s">
+      <c r="H78" s="458" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="42.75" hidden="1">
-      <c r="A79" s="462"/>
+      <c r="A79" s="468"/>
       <c r="B79" s="73" t="s">
         <v>930</v>
       </c>
@@ -42609,10 +42459,10 @@
       </c>
       <c r="F79" s="297"/>
       <c r="G79" s="297"/>
-      <c r="H79" s="469"/>
+      <c r="H79" s="459"/>
     </row>
     <row r="80" spans="1:8" ht="42.75" hidden="1">
-      <c r="A80" s="462"/>
+      <c r="A80" s="468"/>
       <c r="B80" s="73" t="s">
         <v>933</v>
       </c>
@@ -42627,10 +42477,10 @@
       </c>
       <c r="F80" s="297"/>
       <c r="G80" s="297"/>
-      <c r="H80" s="469"/>
+      <c r="H80" s="459"/>
     </row>
     <row r="81" spans="1:8" ht="42.75" hidden="1">
-      <c r="A81" s="462"/>
+      <c r="A81" s="468"/>
       <c r="B81" s="73" t="s">
         <v>936</v>
       </c>
@@ -42645,10 +42495,10 @@
       </c>
       <c r="F81" s="297"/>
       <c r="G81" s="297"/>
-      <c r="H81" s="469"/>
+      <c r="H81" s="459"/>
     </row>
     <row r="82" spans="1:8" ht="28.5" hidden="1">
-      <c r="A82" s="462"/>
+      <c r="A82" s="468"/>
       <c r="B82" s="73" t="s">
         <v>940</v>
       </c>
@@ -42663,10 +42513,10 @@
       </c>
       <c r="F82" s="297"/>
       <c r="G82" s="297"/>
-      <c r="H82" s="469"/>
+      <c r="H82" s="459"/>
     </row>
     <row r="83" spans="1:8" ht="57" hidden="1">
-      <c r="A83" s="462"/>
+      <c r="A83" s="468"/>
       <c r="B83" s="73" t="s">
         <v>944</v>
       </c>
@@ -42681,10 +42531,10 @@
       </c>
       <c r="F83" s="297"/>
       <c r="G83" s="297"/>
-      <c r="H83" s="470"/>
+      <c r="H83" s="460"/>
     </row>
     <row r="84" spans="1:8" ht="28.5" hidden="1">
-      <c r="A84" s="473" t="s">
+      <c r="A84" s="471" t="s">
         <v>693</v>
       </c>
       <c r="B84" s="80" t="s">
@@ -42701,12 +42551,12 @@
       </c>
       <c r="F84" s="297"/>
       <c r="G84" s="297"/>
-      <c r="H84" s="468" t="s">
+      <c r="H84" s="458" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="57" hidden="1">
-      <c r="A85" s="473"/>
+      <c r="A85" s="471"/>
       <c r="B85" s="84" t="s">
         <v>952</v>
       </c>
@@ -42719,10 +42569,10 @@
       </c>
       <c r="F85" s="297"/>
       <c r="G85" s="297"/>
-      <c r="H85" s="469"/>
+      <c r="H85" s="459"/>
     </row>
     <row r="86" spans="1:8" ht="28.5" hidden="1">
-      <c r="A86" s="473"/>
+      <c r="A86" s="471"/>
       <c r="B86" s="84" t="s">
         <v>955</v>
       </c>
@@ -42735,10 +42585,10 @@
       </c>
       <c r="F86" s="297"/>
       <c r="G86" s="297"/>
-      <c r="H86" s="469"/>
+      <c r="H86" s="459"/>
     </row>
     <row r="87" spans="1:8" ht="42.75" hidden="1">
-      <c r="A87" s="473"/>
+      <c r="A87" s="471"/>
       <c r="B87" s="84" t="s">
         <v>958</v>
       </c>
@@ -42751,10 +42601,10 @@
       </c>
       <c r="F87" s="297"/>
       <c r="G87" s="297"/>
-      <c r="H87" s="469"/>
+      <c r="H87" s="459"/>
     </row>
     <row r="88" spans="1:8" ht="28.5" hidden="1">
-      <c r="A88" s="474"/>
+      <c r="A88" s="472"/>
       <c r="B88" s="80" t="s">
         <v>961</v>
       </c>
@@ -42767,7 +42617,7 @@
       </c>
       <c r="F88" s="297"/>
       <c r="G88" s="297"/>
-      <c r="H88" s="470"/>
+      <c r="H88" s="460"/>
     </row>
     <row r="89" spans="1:8" ht="67.5" hidden="1">
       <c r="A89" s="90" t="s">
@@ -42790,7 +42640,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="28.5" hidden="1">
-      <c r="A90" s="462" t="s">
+      <c r="A90" s="468" t="s">
         <v>668</v>
       </c>
       <c r="B90" s="348" t="s">
@@ -42811,12 +42661,12 @@
       <c r="G90" s="297">
         <v>30</v>
       </c>
-      <c r="H90" s="468" t="s">
+      <c r="H90" s="458" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="42.75" hidden="1">
-      <c r="A91" s="462"/>
+      <c r="A91" s="468"/>
       <c r="B91" s="348" t="s">
         <v>973</v>
       </c>
@@ -42831,10 +42681,10 @@
       </c>
       <c r="F91" s="297"/>
       <c r="G91" s="297"/>
-      <c r="H91" s="470"/>
+      <c r="H91" s="460"/>
     </row>
     <row r="92" spans="1:8" ht="57" hidden="1">
-      <c r="A92" s="473"/>
+      <c r="A92" s="471"/>
       <c r="B92" s="351" t="s">
         <v>976</v>
       </c>
@@ -42849,12 +42699,12 @@
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="297"/>
-      <c r="H92" s="468" t="s">
+      <c r="H92" s="458" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="28.5" hidden="1">
-      <c r="A93" s="473"/>
+      <c r="A93" s="471"/>
       <c r="B93" s="95" t="s">
         <v>980</v>
       </c>
@@ -42869,10 +42719,10 @@
       </c>
       <c r="F93" s="297"/>
       <c r="G93" s="297"/>
-      <c r="H93" s="469"/>
+      <c r="H93" s="459"/>
     </row>
     <row r="94" spans="1:8" ht="28.5" hidden="1">
-      <c r="A94" s="473"/>
+      <c r="A94" s="471"/>
       <c r="B94" s="95" t="s">
         <v>984</v>
       </c>
@@ -42887,10 +42737,10 @@
       </c>
       <c r="F94" s="297"/>
       <c r="G94" s="297"/>
-      <c r="H94" s="469"/>
+      <c r="H94" s="459"/>
     </row>
     <row r="95" spans="1:8" ht="57" hidden="1">
-      <c r="A95" s="473"/>
+      <c r="A95" s="471"/>
       <c r="B95" s="95" t="s">
         <v>988</v>
       </c>
@@ -42905,10 +42755,10 @@
       </c>
       <c r="F95" s="297"/>
       <c r="G95" s="297"/>
-      <c r="H95" s="469"/>
+      <c r="H95" s="459"/>
     </row>
     <row r="96" spans="1:8" ht="28.5" hidden="1">
-      <c r="A96" s="473"/>
+      <c r="A96" s="471"/>
       <c r="B96" s="95" t="s">
         <v>992</v>
       </c>
@@ -42923,10 +42773,10 @@
       </c>
       <c r="F96" s="297"/>
       <c r="G96" s="297"/>
-      <c r="H96" s="469"/>
+      <c r="H96" s="459"/>
     </row>
     <row r="97" spans="1:9" ht="28.5" hidden="1">
-      <c r="A97" s="473"/>
+      <c r="A97" s="471"/>
       <c r="B97" s="95" t="s">
         <v>996</v>
       </c>
@@ -42941,10 +42791,10 @@
       </c>
       <c r="F97" s="297"/>
       <c r="G97" s="297"/>
-      <c r="H97" s="469"/>
+      <c r="H97" s="459"/>
     </row>
     <row r="98" spans="1:9" ht="28.5" hidden="1">
-      <c r="A98" s="473"/>
+      <c r="A98" s="471"/>
       <c r="B98" s="95" t="s">
         <v>1000</v>
       </c>
@@ -42959,10 +42809,10 @@
       </c>
       <c r="F98" s="297"/>
       <c r="G98" s="297"/>
-      <c r="H98" s="469"/>
+      <c r="H98" s="459"/>
     </row>
     <row r="99" spans="1:9" ht="28.5" hidden="1">
-      <c r="A99" s="473"/>
+      <c r="A99" s="471"/>
       <c r="B99" s="95" t="s">
         <v>1004</v>
       </c>
@@ -42977,10 +42827,10 @@
       </c>
       <c r="F99" s="297"/>
       <c r="G99" s="297"/>
-      <c r="H99" s="469"/>
+      <c r="H99" s="459"/>
     </row>
     <row r="100" spans="1:9" ht="28.5" hidden="1">
-      <c r="A100" s="473"/>
+      <c r="A100" s="471"/>
       <c r="B100" s="95" t="s">
         <v>1007</v>
       </c>
@@ -42995,10 +42845,10 @@
       </c>
       <c r="F100" s="297"/>
       <c r="G100" s="297"/>
-      <c r="H100" s="469"/>
+      <c r="H100" s="459"/>
     </row>
     <row r="101" spans="1:9" ht="28.5" hidden="1">
-      <c r="A101" s="473"/>
+      <c r="A101" s="471"/>
       <c r="B101" s="95" t="s">
         <v>1011</v>
       </c>
@@ -43013,10 +42863,10 @@
       </c>
       <c r="F101" s="297"/>
       <c r="G101" s="297"/>
-      <c r="H101" s="469"/>
+      <c r="H101" s="459"/>
     </row>
     <row r="102" spans="1:9" ht="42.75" hidden="1">
-      <c r="A102" s="474"/>
+      <c r="A102" s="472"/>
       <c r="B102" s="95" t="s">
         <v>1014</v>
       </c>
@@ -43031,7 +42881,7 @@
       </c>
       <c r="F102" s="297"/>
       <c r="G102" s="297"/>
-      <c r="H102" s="470"/>
+      <c r="H102" s="460"/>
     </row>
     <row r="103" spans="1:9" ht="67.5" hidden="1">
       <c r="A103" s="87" t="s">
@@ -43061,7 +42911,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="28.5" hidden="1">
-      <c r="A104" s="475" t="s">
+      <c r="A104" s="470" t="s">
         <v>716</v>
       </c>
       <c r="B104" s="104" t="s">
@@ -43078,12 +42928,12 @@
       </c>
       <c r="F104" s="297"/>
       <c r="G104" s="297"/>
-      <c r="H104" s="468" t="s">
+      <c r="H104" s="458" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="57" hidden="1">
-      <c r="A105" s="473"/>
+      <c r="A105" s="471"/>
       <c r="B105" s="104" t="s">
         <v>1030</v>
       </c>
@@ -43098,10 +42948,10 @@
       </c>
       <c r="F105" s="297"/>
       <c r="G105" s="297"/>
-      <c r="H105" s="469"/>
+      <c r="H105" s="459"/>
     </row>
     <row r="106" spans="1:9" ht="42.75" hidden="1">
-      <c r="A106" s="473"/>
+      <c r="A106" s="471"/>
       <c r="B106" s="84" t="s">
         <v>1034</v>
       </c>
@@ -43114,10 +42964,10 @@
       </c>
       <c r="F106" s="297"/>
       <c r="G106" s="297"/>
-      <c r="H106" s="469"/>
+      <c r="H106" s="459"/>
     </row>
     <row r="107" spans="1:9" ht="42.75" hidden="1">
-      <c r="A107" s="473"/>
+      <c r="A107" s="471"/>
       <c r="B107" s="84" t="s">
         <v>1037</v>
       </c>
@@ -43132,10 +42982,10 @@
       </c>
       <c r="F107" s="297"/>
       <c r="G107" s="297"/>
-      <c r="H107" s="469"/>
+      <c r="H107" s="459"/>
     </row>
     <row r="108" spans="1:9" ht="42.75" hidden="1">
-      <c r="A108" s="474"/>
+      <c r="A108" s="472"/>
       <c r="B108" s="84" t="s">
         <v>1040</v>
       </c>
@@ -43148,10 +42998,10 @@
       </c>
       <c r="F108" s="297"/>
       <c r="G108" s="297"/>
-      <c r="H108" s="470"/>
+      <c r="H108" s="460"/>
     </row>
     <row r="109" spans="1:9" ht="42.75" hidden="1">
-      <c r="A109" s="475" t="s">
+      <c r="A109" s="470" t="s">
         <v>720</v>
       </c>
       <c r="B109" s="139" t="s">
@@ -43172,12 +43022,12 @@
       <c r="G109" s="297">
         <v>44</v>
       </c>
-      <c r="H109" s="481" t="s">
+      <c r="H109" s="463" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="28.5" hidden="1">
-      <c r="A110" s="473"/>
+      <c r="A110" s="471"/>
       <c r="B110" s="139" t="s">
         <v>1049</v>
       </c>
@@ -43192,10 +43042,10 @@
       </c>
       <c r="F110" s="297"/>
       <c r="G110" s="297"/>
-      <c r="H110" s="469"/>
+      <c r="H110" s="459"/>
     </row>
     <row r="111" spans="1:9" ht="28.5" hidden="1">
-      <c r="A111" s="473"/>
+      <c r="A111" s="471"/>
       <c r="B111" s="139" t="s">
         <v>1053</v>
       </c>
@@ -43210,10 +43060,10 @@
       </c>
       <c r="F111" s="297"/>
       <c r="G111" s="297"/>
-      <c r="H111" s="469"/>
+      <c r="H111" s="459"/>
     </row>
     <row r="112" spans="1:9" ht="42.75" hidden="1">
-      <c r="A112" s="473"/>
+      <c r="A112" s="471"/>
       <c r="B112" s="139" t="s">
         <v>1056</v>
       </c>
@@ -43228,10 +43078,10 @@
       </c>
       <c r="F112" s="297"/>
       <c r="G112" s="297"/>
-      <c r="H112" s="469"/>
+      <c r="H112" s="459"/>
     </row>
     <row r="113" spans="1:8" ht="42.75" hidden="1">
-      <c r="A113" s="473"/>
+      <c r="A113" s="471"/>
       <c r="B113" s="139" t="s">
         <v>1060</v>
       </c>
@@ -43244,10 +43094,10 @@
       </c>
       <c r="F113" s="297"/>
       <c r="G113" s="297"/>
-      <c r="H113" s="469"/>
+      <c r="H113" s="459"/>
     </row>
     <row r="114" spans="1:8" ht="42.75" hidden="1">
-      <c r="A114" s="473"/>
+      <c r="A114" s="471"/>
       <c r="B114" s="139" t="s">
         <v>1063</v>
       </c>
@@ -43262,10 +43112,10 @@
       </c>
       <c r="F114" s="297"/>
       <c r="G114" s="297"/>
-      <c r="H114" s="470"/>
+      <c r="H114" s="460"/>
     </row>
     <row r="115" spans="1:8" ht="28.5" hidden="1">
-      <c r="A115" s="473"/>
+      <c r="A115" s="471"/>
       <c r="B115" s="106" t="s">
         <v>1066</v>
       </c>
@@ -43280,12 +43130,12 @@
       </c>
       <c r="F115" s="297"/>
       <c r="G115" s="297"/>
-      <c r="H115" s="468" t="s">
+      <c r="H115" s="458" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="25.5" hidden="1">
-      <c r="A116" s="473"/>
+      <c r="A116" s="471"/>
       <c r="B116" s="84" t="s">
         <v>1071</v>
       </c>
@@ -43298,10 +43148,10 @@
       </c>
       <c r="F116" s="297"/>
       <c r="G116" s="297"/>
-      <c r="H116" s="469"/>
+      <c r="H116" s="459"/>
     </row>
     <row r="117" spans="1:8" ht="71.25" hidden="1">
-      <c r="A117" s="473"/>
+      <c r="A117" s="471"/>
       <c r="B117" s="84" t="s">
         <v>1074</v>
       </c>
@@ -43316,10 +43166,10 @@
       </c>
       <c r="F117" s="297"/>
       <c r="G117" s="297"/>
-      <c r="H117" s="469"/>
+      <c r="H117" s="459"/>
     </row>
     <row r="118" spans="1:8" ht="42.75" hidden="1">
-      <c r="A118" s="473"/>
+      <c r="A118" s="471"/>
       <c r="B118" s="84" t="s">
         <v>1078</v>
       </c>
@@ -43332,10 +43182,10 @@
       </c>
       <c r="F118" s="297"/>
       <c r="G118" s="297"/>
-      <c r="H118" s="469"/>
+      <c r="H118" s="459"/>
     </row>
     <row r="119" spans="1:8" ht="28.5" hidden="1">
-      <c r="A119" s="473"/>
+      <c r="A119" s="471"/>
       <c r="B119" s="84" t="s">
         <v>1081</v>
       </c>
@@ -43350,10 +43200,10 @@
       </c>
       <c r="F119" s="297"/>
       <c r="G119" s="297"/>
-      <c r="H119" s="469"/>
+      <c r="H119" s="459"/>
     </row>
     <row r="120" spans="1:8" ht="42.75" hidden="1">
-      <c r="A120" s="473"/>
+      <c r="A120" s="471"/>
       <c r="B120" s="104" t="s">
         <v>1085</v>
       </c>
@@ -43368,10 +43218,10 @@
       </c>
       <c r="F120" s="297"/>
       <c r="G120" s="297"/>
-      <c r="H120" s="469"/>
+      <c r="H120" s="459"/>
     </row>
     <row r="121" spans="1:8" ht="42.75" hidden="1">
-      <c r="A121" s="473"/>
+      <c r="A121" s="471"/>
       <c r="B121" s="84" t="s">
         <v>1089</v>
       </c>
@@ -43386,10 +43236,10 @@
       </c>
       <c r="F121" s="297"/>
       <c r="G121" s="297"/>
-      <c r="H121" s="469"/>
+      <c r="H121" s="459"/>
     </row>
     <row r="122" spans="1:8" ht="47.25" hidden="1">
-      <c r="A122" s="473"/>
+      <c r="A122" s="471"/>
       <c r="B122" s="84" t="s">
         <v>1093</v>
       </c>
@@ -43404,10 +43254,10 @@
       </c>
       <c r="F122" s="297"/>
       <c r="G122" s="297"/>
-      <c r="H122" s="469"/>
+      <c r="H122" s="459"/>
     </row>
     <row r="123" spans="1:8" ht="63" hidden="1">
-      <c r="A123" s="473"/>
+      <c r="A123" s="471"/>
       <c r="B123" s="360" t="s">
         <v>1097</v>
       </c>
@@ -43420,10 +43270,10 @@
       <c r="E123" s="362"/>
       <c r="F123" s="297"/>
       <c r="G123" s="297"/>
-      <c r="H123" s="469"/>
+      <c r="H123" s="459"/>
     </row>
     <row r="124" spans="1:8" ht="38.25" hidden="1">
-      <c r="A124" s="473"/>
+      <c r="A124" s="471"/>
       <c r="B124" s="111" t="s">
         <v>1100</v>
       </c>
@@ -43436,10 +43286,10 @@
       <c r="E124" s="363"/>
       <c r="F124" s="297"/>
       <c r="G124" s="297"/>
-      <c r="H124" s="469"/>
+      <c r="H124" s="459"/>
     </row>
     <row r="125" spans="1:8" ht="63" hidden="1">
-      <c r="A125" s="473"/>
+      <c r="A125" s="471"/>
       <c r="B125" s="111" t="s">
         <v>1103</v>
       </c>
@@ -43452,10 +43302,10 @@
       <c r="E125" s="362"/>
       <c r="F125" s="297"/>
       <c r="G125" s="297"/>
-      <c r="H125" s="469"/>
+      <c r="H125" s="459"/>
     </row>
     <row r="126" spans="1:8" ht="51" hidden="1">
-      <c r="A126" s="474"/>
+      <c r="A126" s="472"/>
       <c r="B126" s="115" t="s">
         <v>1106</v>
       </c>
@@ -43468,7 +43318,7 @@
       <c r="E126" s="364"/>
       <c r="F126" s="297"/>
       <c r="G126" s="297"/>
-      <c r="H126" s="470"/>
+      <c r="H126" s="460"/>
     </row>
     <row r="127" spans="1:8" ht="162" hidden="1">
       <c r="A127" s="87" t="s">
@@ -43491,7 +43341,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.5" hidden="1">
-      <c r="A128" s="475" t="s">
+      <c r="A128" s="470" t="s">
         <v>731</v>
       </c>
       <c r="B128" s="366" t="s">
@@ -43510,12 +43360,12 @@
       <c r="G128" s="297">
         <v>26</v>
       </c>
-      <c r="H128" s="468" t="s">
+      <c r="H128" s="458" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="42.75" hidden="1">
-      <c r="A129" s="473"/>
+      <c r="A129" s="471"/>
       <c r="B129" s="366" t="s">
         <v>1118</v>
       </c>
@@ -43530,10 +43380,10 @@
       </c>
       <c r="F129" s="297"/>
       <c r="G129" s="297"/>
-      <c r="H129" s="469"/>
+      <c r="H129" s="459"/>
     </row>
     <row r="130" spans="1:8" ht="28.5" hidden="1">
-      <c r="A130" s="473"/>
+      <c r="A130" s="471"/>
       <c r="B130" s="366" t="s">
         <v>1121</v>
       </c>
@@ -43548,10 +43398,10 @@
       </c>
       <c r="F130" s="297"/>
       <c r="G130" s="297"/>
-      <c r="H130" s="469"/>
+      <c r="H130" s="459"/>
     </row>
     <row r="131" spans="1:8" ht="28.5" hidden="1">
-      <c r="A131" s="473"/>
+      <c r="A131" s="471"/>
       <c r="B131" s="366" t="s">
         <v>1125</v>
       </c>
@@ -43566,10 +43416,10 @@
       </c>
       <c r="F131" s="297"/>
       <c r="G131" s="297"/>
-      <c r="H131" s="469"/>
+      <c r="H131" s="459"/>
     </row>
     <row r="132" spans="1:8" ht="28.5" hidden="1">
-      <c r="A132" s="473"/>
+      <c r="A132" s="471"/>
       <c r="B132" s="369" t="s">
         <v>1128</v>
       </c>
@@ -43584,10 +43434,10 @@
       </c>
       <c r="F132" s="297"/>
       <c r="G132" s="297"/>
-      <c r="H132" s="470"/>
+      <c r="H132" s="460"/>
     </row>
     <row r="133" spans="1:8" ht="28.5" hidden="1">
-      <c r="A133" s="473"/>
+      <c r="A133" s="471"/>
       <c r="B133" s="122" t="s">
         <v>1132</v>
       </c>
@@ -43600,12 +43450,12 @@
       </c>
       <c r="F133" s="297"/>
       <c r="G133" s="297"/>
-      <c r="H133" s="468" t="s">
+      <c r="H133" s="458" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="28.5" hidden="1">
-      <c r="A134" s="473"/>
+      <c r="A134" s="471"/>
       <c r="B134" s="122" t="s">
         <v>1136</v>
       </c>
@@ -43618,10 +43468,10 @@
       </c>
       <c r="F134" s="297"/>
       <c r="G134" s="297"/>
-      <c r="H134" s="469"/>
+      <c r="H134" s="459"/>
     </row>
     <row r="135" spans="1:8" ht="28.5" hidden="1">
-      <c r="A135" s="473"/>
+      <c r="A135" s="471"/>
       <c r="B135" s="122" t="s">
         <v>1139</v>
       </c>
@@ -43634,10 +43484,10 @@
       </c>
       <c r="F135" s="297"/>
       <c r="G135" s="297"/>
-      <c r="H135" s="469"/>
+      <c r="H135" s="459"/>
     </row>
     <row r="136" spans="1:8" ht="28.5" hidden="1">
-      <c r="A136" s="473"/>
+      <c r="A136" s="471"/>
       <c r="B136" s="122" t="s">
         <v>1142</v>
       </c>
@@ -43650,10 +43500,10 @@
       </c>
       <c r="F136" s="297"/>
       <c r="G136" s="297"/>
-      <c r="H136" s="469"/>
+      <c r="H136" s="459"/>
     </row>
     <row r="137" spans="1:8" ht="28.5" hidden="1">
-      <c r="A137" s="474"/>
+      <c r="A137" s="472"/>
       <c r="B137" s="133" t="s">
         <v>1145</v>
       </c>
@@ -43668,10 +43518,10 @@
       </c>
       <c r="F137" s="297"/>
       <c r="G137" s="297"/>
-      <c r="H137" s="470"/>
+      <c r="H137" s="460"/>
     </row>
     <row r="138" spans="1:8" ht="28.5" hidden="1">
-      <c r="A138" s="475" t="s">
+      <c r="A138" s="470" t="s">
         <v>675</v>
       </c>
       <c r="B138" s="139" t="s">
@@ -43690,12 +43540,12 @@
       <c r="G138" s="373">
         <v>24</v>
       </c>
-      <c r="H138" s="468" t="s">
+      <c r="H138" s="458" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="28.5" hidden="1">
-      <c r="A139" s="473"/>
+      <c r="A139" s="471"/>
       <c r="B139" s="139" t="s">
         <v>1154</v>
       </c>
@@ -43708,10 +43558,10 @@
       </c>
       <c r="F139" s="297"/>
       <c r="G139" s="297"/>
-      <c r="H139" s="470"/>
+      <c r="H139" s="460"/>
     </row>
     <row r="140" spans="1:8" ht="28.5" hidden="1">
-      <c r="A140" s="473"/>
+      <c r="A140" s="471"/>
       <c r="B140" s="84" t="s">
         <v>1156</v>
       </c>
@@ -43724,12 +43574,12 @@
       </c>
       <c r="F140" s="297"/>
       <c r="G140" s="297"/>
-      <c r="H140" s="481" t="s">
+      <c r="H140" s="463" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="25.5" hidden="1">
-      <c r="A141" s="473"/>
+      <c r="A141" s="471"/>
       <c r="B141" s="84" t="s">
         <v>1160</v>
       </c>
@@ -43742,10 +43592,10 @@
       </c>
       <c r="F141" s="297"/>
       <c r="G141" s="297"/>
-      <c r="H141" s="469"/>
+      <c r="H141" s="459"/>
     </row>
     <row r="142" spans="1:8" ht="42.75" hidden="1">
-      <c r="A142" s="473"/>
+      <c r="A142" s="471"/>
       <c r="B142" s="84" t="s">
         <v>1163</v>
       </c>
@@ -43758,10 +43608,10 @@
       </c>
       <c r="F142" s="297"/>
       <c r="G142" s="297"/>
-      <c r="H142" s="469"/>
+      <c r="H142" s="459"/>
     </row>
     <row r="143" spans="1:8" ht="28.5" hidden="1">
-      <c r="A143" s="473"/>
+      <c r="A143" s="471"/>
       <c r="B143" s="84" t="s">
         <v>1166</v>
       </c>
@@ -43774,10 +43624,10 @@
       </c>
       <c r="F143" s="297"/>
       <c r="G143" s="297"/>
-      <c r="H143" s="469"/>
+      <c r="H143" s="459"/>
     </row>
     <row r="144" spans="1:8" hidden="1">
-      <c r="A144" s="473"/>
+      <c r="A144" s="471"/>
       <c r="B144" s="84" t="s">
         <v>1169</v>
       </c>
@@ -43790,10 +43640,10 @@
       </c>
       <c r="F144" s="297"/>
       <c r="G144" s="297"/>
-      <c r="H144" s="469"/>
+      <c r="H144" s="459"/>
     </row>
     <row r="145" spans="1:8" ht="28.5" hidden="1">
-      <c r="A145" s="473"/>
+      <c r="A145" s="471"/>
       <c r="B145" s="84" t="s">
         <v>1172</v>
       </c>
@@ -43806,10 +43656,10 @@
       </c>
       <c r="F145" s="297"/>
       <c r="G145" s="297"/>
-      <c r="H145" s="469"/>
+      <c r="H145" s="459"/>
     </row>
     <row r="146" spans="1:8" ht="28.5" hidden="1">
-      <c r="A146" s="473"/>
+      <c r="A146" s="471"/>
       <c r="B146" s="84" t="s">
         <v>1175</v>
       </c>
@@ -43822,10 +43672,10 @@
       </c>
       <c r="F146" s="297"/>
       <c r="G146" s="297"/>
-      <c r="H146" s="469"/>
+      <c r="H146" s="459"/>
     </row>
     <row r="147" spans="1:8" hidden="1">
-      <c r="A147" s="474"/>
+      <c r="A147" s="472"/>
       <c r="B147" s="136" t="s">
         <v>1178</v>
       </c>
@@ -43838,10 +43688,10 @@
       </c>
       <c r="F147" s="297"/>
       <c r="G147" s="297"/>
-      <c r="H147" s="470"/>
+      <c r="H147" s="460"/>
     </row>
     <row r="148" spans="1:8" ht="42.75" hidden="1">
-      <c r="A148" s="475" t="s">
+      <c r="A148" s="470" t="s">
         <v>738</v>
       </c>
       <c r="B148" s="376" t="s">
@@ -43862,12 +43712,12 @@
       <c r="G148" s="297">
         <v>22</v>
       </c>
-      <c r="H148" s="468" t="s">
+      <c r="H148" s="458" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.5" hidden="1">
-      <c r="A149" s="473"/>
+      <c r="A149" s="471"/>
       <c r="B149" s="376" t="s">
         <v>1187</v>
       </c>
@@ -43882,10 +43732,10 @@
       </c>
       <c r="F149" s="297"/>
       <c r="G149" s="297"/>
-      <c r="H149" s="469"/>
+      <c r="H149" s="459"/>
     </row>
     <row r="150" spans="1:8" ht="42.75" hidden="1">
-      <c r="A150" s="473"/>
+      <c r="A150" s="471"/>
       <c r="B150" s="376" t="s">
         <v>1191</v>
       </c>
@@ -43898,10 +43748,10 @@
       </c>
       <c r="F150" s="297"/>
       <c r="G150" s="297"/>
-      <c r="H150" s="470"/>
+      <c r="H150" s="460"/>
     </row>
     <row r="151" spans="1:8" ht="28.5" hidden="1">
-      <c r="A151" s="473"/>
+      <c r="A151" s="471"/>
       <c r="B151" s="144" t="s">
         <v>1194</v>
       </c>
@@ -43916,12 +43766,12 @@
       </c>
       <c r="F151" s="297"/>
       <c r="G151" s="297"/>
-      <c r="H151" s="468" t="s">
+      <c r="H151" s="458" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="42.75" hidden="1">
-      <c r="A152" s="473"/>
+      <c r="A152" s="471"/>
       <c r="B152" s="144" t="s">
         <v>1198</v>
       </c>
@@ -43936,10 +43786,10 @@
       </c>
       <c r="F152" s="297"/>
       <c r="G152" s="297"/>
-      <c r="H152" s="469"/>
+      <c r="H152" s="459"/>
     </row>
     <row r="153" spans="1:8" ht="28.5" hidden="1">
-      <c r="A153" s="473"/>
+      <c r="A153" s="471"/>
       <c r="B153" s="148" t="s">
         <v>1201</v>
       </c>
@@ -43952,10 +43802,10 @@
       </c>
       <c r="F153" s="297"/>
       <c r="G153" s="297"/>
-      <c r="H153" s="469"/>
+      <c r="H153" s="459"/>
     </row>
     <row r="154" spans="1:8" ht="42.75" hidden="1">
-      <c r="A154" s="473"/>
+      <c r="A154" s="471"/>
       <c r="B154" s="144" t="s">
         <v>1204</v>
       </c>
@@ -43970,10 +43820,10 @@
       </c>
       <c r="F154" s="297"/>
       <c r="G154" s="297"/>
-      <c r="H154" s="469"/>
+      <c r="H154" s="459"/>
     </row>
     <row r="155" spans="1:8" ht="28.5" hidden="1">
-      <c r="A155" s="473"/>
+      <c r="A155" s="471"/>
       <c r="B155" s="148" t="s">
         <v>1207</v>
       </c>
@@ -43988,10 +43838,10 @@
       </c>
       <c r="F155" s="297"/>
       <c r="G155" s="297"/>
-      <c r="H155" s="469"/>
+      <c r="H155" s="459"/>
     </row>
     <row r="156" spans="1:8" ht="42.75" hidden="1">
-      <c r="A156" s="474"/>
+      <c r="A156" s="472"/>
       <c r="B156" s="144" t="s">
         <v>1210</v>
       </c>
@@ -44004,10 +43854,10 @@
       </c>
       <c r="F156" s="297"/>
       <c r="G156" s="297"/>
-      <c r="H156" s="470"/>
+      <c r="H156" s="460"/>
     </row>
     <row r="157" spans="1:8" ht="42.75" hidden="1">
-      <c r="A157" s="475" t="s">
+      <c r="A157" s="470" t="s">
         <v>710</v>
       </c>
       <c r="B157" s="381" t="s">
@@ -44026,12 +43876,12 @@
       <c r="G157" s="297">
         <v>16</v>
       </c>
-      <c r="H157" s="468" t="s">
+      <c r="H157" s="458" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="42.75" hidden="1">
-      <c r="A158" s="473"/>
+      <c r="A158" s="471"/>
       <c r="B158" s="383" t="s">
         <v>1218</v>
       </c>
@@ -44044,10 +43894,10 @@
       </c>
       <c r="F158" s="297"/>
       <c r="G158" s="297"/>
-      <c r="H158" s="469"/>
+      <c r="H158" s="459"/>
     </row>
     <row r="159" spans="1:8" ht="42.75" hidden="1">
-      <c r="A159" s="473"/>
+      <c r="A159" s="471"/>
       <c r="B159" s="383" t="s">
         <v>1219</v>
       </c>
@@ -44060,10 +43910,10 @@
       </c>
       <c r="F159" s="297"/>
       <c r="G159" s="297"/>
-      <c r="H159" s="470"/>
+      <c r="H159" s="460"/>
     </row>
     <row r="160" spans="1:8" ht="42.75" hidden="1">
-      <c r="A160" s="473"/>
+      <c r="A160" s="471"/>
       <c r="B160" s="158" t="s">
         <v>1220</v>
       </c>
@@ -44076,12 +43926,12 @@
       </c>
       <c r="F160" s="297"/>
       <c r="G160" s="297"/>
-      <c r="H160" s="468" t="s">
+      <c r="H160" s="458" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="28.5" hidden="1">
-      <c r="A161" s="473"/>
+      <c r="A161" s="471"/>
       <c r="B161" s="158" t="s">
         <v>1224</v>
       </c>
@@ -44096,10 +43946,10 @@
       </c>
       <c r="F161" s="297"/>
       <c r="G161" s="297"/>
-      <c r="H161" s="469"/>
+      <c r="H161" s="459"/>
     </row>
     <row r="162" spans="1:12" ht="42.75" hidden="1">
-      <c r="A162" s="473"/>
+      <c r="A162" s="471"/>
       <c r="B162" s="385" t="s">
         <v>1227</v>
       </c>
@@ -44114,10 +43964,10 @@
       </c>
       <c r="F162" s="297"/>
       <c r="G162" s="297"/>
-      <c r="H162" s="470"/>
+      <c r="H162" s="460"/>
     </row>
     <row r="163" spans="1:12" ht="28.5" hidden="1">
-      <c r="A163" s="462" t="s">
+      <c r="A163" s="468" t="s">
         <v>706</v>
       </c>
       <c r="B163" s="69" t="s">
@@ -44132,12 +43982,12 @@
       </c>
       <c r="F163" s="297"/>
       <c r="G163" s="297"/>
-      <c r="H163" s="468" t="s">
+      <c r="H163" s="458" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="28.5" hidden="1">
-      <c r="A164" s="462"/>
+      <c r="A164" s="468"/>
       <c r="B164" s="69" t="s">
         <v>1234</v>
       </c>
@@ -44152,10 +44002,10 @@
       </c>
       <c r="F164" s="297"/>
       <c r="G164" s="297"/>
-      <c r="H164" s="469"/>
+      <c r="H164" s="459"/>
     </row>
     <row r="165" spans="1:12" ht="28.5" hidden="1">
-      <c r="A165" s="462"/>
+      <c r="A165" s="468"/>
       <c r="B165" s="69" t="s">
         <v>1237</v>
       </c>
@@ -44170,10 +44020,10 @@
       </c>
       <c r="F165" s="297"/>
       <c r="G165" s="297"/>
-      <c r="H165" s="469"/>
+      <c r="H165" s="459"/>
     </row>
     <row r="166" spans="1:12" ht="42.75" hidden="1">
-      <c r="A166" s="462"/>
+      <c r="A166" s="468"/>
       <c r="B166" s="38" t="s">
         <v>1240</v>
       </c>
@@ -44186,7 +44036,7 @@
       <c r="E166" s="388"/>
       <c r="F166" s="297"/>
       <c r="G166" s="297"/>
-      <c r="H166" s="470"/>
+      <c r="H166" s="460"/>
     </row>
     <row r="167" spans="1:12" ht="42.75" hidden="1">
       <c r="A167" s="79" t="s">
@@ -44209,7 +44059,7 @@
       </c>
     </row>
     <row r="168" spans="1:12" s="293" customFormat="1" ht="57" hidden="1">
-      <c r="A168" s="476" t="s">
+      <c r="A168" s="465" t="s">
         <v>737</v>
       </c>
       <c r="B168" s="393" t="s">
@@ -44228,7 +44078,7 @@
         <v>1251</v>
       </c>
       <c r="G168" s="396"/>
-      <c r="H168" s="480" t="s">
+      <c r="H168" s="462" t="s">
         <v>1252</v>
       </c>
       <c r="J168" s="294"/>
@@ -44236,7 +44086,7 @@
       <c r="L168" s="291"/>
     </row>
     <row r="169" spans="1:12" ht="71.25" hidden="1">
-      <c r="A169" s="472"/>
+      <c r="A169" s="466"/>
       <c r="B169" s="135" t="s">
         <v>1253</v>
       </c>
@@ -44249,10 +44099,10 @@
       <c r="E169" s="397"/>
       <c r="F169" s="297"/>
       <c r="G169" s="297"/>
-      <c r="H169" s="469"/>
+      <c r="H169" s="459"/>
     </row>
     <row r="170" spans="1:12" ht="57" hidden="1">
-      <c r="A170" s="472"/>
+      <c r="A170" s="466"/>
       <c r="B170" s="135" t="s">
         <v>1256</v>
       </c>
@@ -44265,10 +44115,10 @@
       <c r="E170" s="397"/>
       <c r="F170" s="297"/>
       <c r="G170" s="297"/>
-      <c r="H170" s="469"/>
+      <c r="H170" s="459"/>
     </row>
     <row r="171" spans="1:12" ht="57" hidden="1">
-      <c r="A171" s="477"/>
+      <c r="A171" s="467"/>
       <c r="B171" s="135" t="s">
         <v>1259</v>
       </c>
@@ -44281,10 +44131,10 @@
       <c r="E171" s="397"/>
       <c r="F171" s="297"/>
       <c r="G171" s="297"/>
-      <c r="H171" s="470"/>
+      <c r="H171" s="460"/>
     </row>
     <row r="172" spans="1:12" ht="42.75" hidden="1">
-      <c r="A172" s="462" t="s">
+      <c r="A172" s="468" t="s">
         <v>1262</v>
       </c>
       <c r="B172" s="72" t="s">
@@ -44310,7 +44160,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="57" hidden="1">
-      <c r="A173" s="462"/>
+      <c r="A173" s="468"/>
       <c r="B173" s="71" t="s">
         <v>1269</v>
       </c>
@@ -44325,12 +44175,12 @@
       </c>
       <c r="F173" s="297"/>
       <c r="G173" s="297"/>
-      <c r="H173" s="468" t="s">
+      <c r="H173" s="458" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="42.75" hidden="1">
-      <c r="A174" s="462"/>
+      <c r="A174" s="468"/>
       <c r="B174" s="169" t="s">
         <v>1274</v>
       </c>
@@ -44343,10 +44193,10 @@
       </c>
       <c r="F174" s="297"/>
       <c r="G174" s="297"/>
-      <c r="H174" s="469"/>
+      <c r="H174" s="459"/>
     </row>
     <row r="175" spans="1:12" ht="42.75" hidden="1">
-      <c r="A175" s="462"/>
+      <c r="A175" s="468"/>
       <c r="B175" s="40" t="s">
         <v>1277</v>
       </c>
@@ -44359,10 +44209,10 @@
       </c>
       <c r="F175" s="297"/>
       <c r="G175" s="297"/>
-      <c r="H175" s="469"/>
+      <c r="H175" s="459"/>
     </row>
     <row r="176" spans="1:12" ht="47.25" hidden="1">
-      <c r="A176" s="462"/>
+      <c r="A176" s="468"/>
       <c r="B176" s="173" t="s">
         <v>1280</v>
       </c>
@@ -44375,10 +44225,10 @@
       </c>
       <c r="F176" s="297"/>
       <c r="G176" s="297"/>
-      <c r="H176" s="469"/>
+      <c r="H176" s="459"/>
     </row>
     <row r="177" spans="1:12" ht="47.25" hidden="1">
-      <c r="A177" s="462"/>
+      <c r="A177" s="468"/>
       <c r="B177" s="400" t="s">
         <v>1283</v>
       </c>
@@ -44391,10 +44241,10 @@
       </c>
       <c r="F177" s="297"/>
       <c r="G177" s="297"/>
-      <c r="H177" s="469"/>
+      <c r="H177" s="459"/>
     </row>
     <row r="178" spans="1:12" ht="25.5" hidden="1">
-      <c r="A178" s="462"/>
+      <c r="A178" s="468"/>
       <c r="B178" s="49" t="s">
         <v>1285</v>
       </c>
@@ -44407,10 +44257,10 @@
       </c>
       <c r="F178" s="297"/>
       <c r="G178" s="297"/>
-      <c r="H178" s="470"/>
+      <c r="H178" s="460"/>
     </row>
     <row r="179" spans="1:12" ht="42.75" hidden="1">
-      <c r="A179" s="462" t="s">
+      <c r="A179" s="468" t="s">
         <v>661</v>
       </c>
       <c r="B179" s="69" t="s">
@@ -44425,12 +44275,12 @@
       </c>
       <c r="F179" s="297"/>
       <c r="G179" s="297"/>
-      <c r="H179" s="481" t="s">
+      <c r="H179" s="463" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="28.5" hidden="1">
-      <c r="A180" s="462"/>
+      <c r="A180" s="468"/>
       <c r="B180" s="69" t="s">
         <v>1292</v>
       </c>
@@ -44443,10 +44293,10 @@
       </c>
       <c r="F180" s="297"/>
       <c r="G180" s="297"/>
-      <c r="H180" s="469"/>
+      <c r="H180" s="459"/>
     </row>
     <row r="181" spans="1:12" ht="28.5" hidden="1">
-      <c r="A181" s="462"/>
+      <c r="A181" s="468"/>
       <c r="B181" s="388" t="s">
         <v>1295</v>
       </c>
@@ -44459,10 +44309,10 @@
       </c>
       <c r="F181" s="297"/>
       <c r="G181" s="297"/>
-      <c r="H181" s="469"/>
+      <c r="H181" s="459"/>
     </row>
     <row r="182" spans="1:12" s="293" customFormat="1" ht="67.5" hidden="1">
-      <c r="A182" s="478"/>
+      <c r="A182" s="469"/>
       <c r="B182" s="293" t="s">
         <v>1298</v>
       </c>
@@ -44477,13 +44327,13 @@
         <v>1301</v>
       </c>
       <c r="G182" s="396"/>
-      <c r="H182" s="482"/>
+      <c r="H182" s="464"/>
       <c r="J182" s="294"/>
       <c r="K182" s="294"/>
       <c r="L182" s="291"/>
     </row>
     <row r="183" spans="1:12" ht="28.5" hidden="1">
-      <c r="A183" s="462" t="s">
+      <c r="A183" s="468" t="s">
         <v>763</v>
       </c>
       <c r="B183" s="402" t="s">
@@ -44498,12 +44348,12 @@
       </c>
       <c r="F183" s="297"/>
       <c r="G183" s="297"/>
-      <c r="H183" s="468" t="s">
+      <c r="H183" s="458" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="25.5" hidden="1">
-      <c r="A184" s="462"/>
+      <c r="A184" s="468"/>
       <c r="B184" s="181" t="s">
         <v>1306</v>
       </c>
@@ -44516,10 +44366,10 @@
       </c>
       <c r="F184" s="297"/>
       <c r="G184" s="297"/>
-      <c r="H184" s="469"/>
+      <c r="H184" s="459"/>
     </row>
     <row r="185" spans="1:12" ht="25.5" hidden="1">
-      <c r="A185" s="462"/>
+      <c r="A185" s="468"/>
       <c r="B185" s="181" t="s">
         <v>1309</v>
       </c>
@@ -44534,10 +44384,10 @@
       </c>
       <c r="F185" s="297"/>
       <c r="G185" s="297"/>
-      <c r="H185" s="469"/>
+      <c r="H185" s="459"/>
     </row>
     <row r="186" spans="1:12" ht="25.5" hidden="1">
-      <c r="A186" s="462"/>
+      <c r="A186" s="468"/>
       <c r="B186" s="181" t="s">
         <v>1313</v>
       </c>
@@ -44550,10 +44400,10 @@
       </c>
       <c r="F186" s="297"/>
       <c r="G186" s="297"/>
-      <c r="H186" s="470"/>
+      <c r="H186" s="460"/>
     </row>
     <row r="187" spans="1:12" ht="42.75" hidden="1">
-      <c r="A187" s="462" t="s">
+      <c r="A187" s="468" t="s">
         <v>658</v>
       </c>
       <c r="B187" s="137" t="s">
@@ -44572,12 +44422,12 @@
       <c r="G187" s="297">
         <v>8</v>
       </c>
-      <c r="H187" s="468" t="s">
+      <c r="H187" s="458" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="28.5" hidden="1">
-      <c r="A188" s="462"/>
+      <c r="A188" s="468"/>
       <c r="B188" s="59" t="s">
         <v>1321</v>
       </c>
@@ -44590,10 +44440,10 @@
       <c r="E188" s="16"/>
       <c r="F188" s="297"/>
       <c r="G188" s="297"/>
-      <c r="H188" s="469"/>
+      <c r="H188" s="459"/>
     </row>
     <row r="189" spans="1:12" ht="42.75" hidden="1">
-      <c r="A189" s="462"/>
+      <c r="A189" s="468"/>
       <c r="B189" s="137" t="s">
         <v>1324</v>
       </c>
@@ -44606,7 +44456,7 @@
       <c r="E189" s="16"/>
       <c r="F189" s="297"/>
       <c r="G189" s="297"/>
-      <c r="H189" s="470"/>
+      <c r="H189" s="460"/>
     </row>
     <row r="190" spans="1:12">
       <c r="J190"/>
@@ -44623,6 +44473,49 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="59">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H27"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A90:A102"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A126"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="H38:H46"/>
+    <mergeCell ref="H47:H53"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="H61:H73"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H133:H137"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H78:H83"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H102"/>
+    <mergeCell ref="H104:H108"/>
     <mergeCell ref="H187:H189"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I7:I12"/>
@@ -44639,49 +44532,6 @@
     <mergeCell ref="H109:H114"/>
     <mergeCell ref="H115:H126"/>
     <mergeCell ref="H128:H132"/>
-    <mergeCell ref="H133:H137"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H78:H83"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H92:H102"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="H38:H46"/>
-    <mergeCell ref="H47:H53"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="H61:H73"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A90:A102"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A126"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A61:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H27"/>
-    <mergeCell ref="H28:H37"/>
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
   <conditionalFormatting sqref="B1:B181 B183:B1048576">
@@ -53028,7 +52878,7 @@
       <c r="C15" s="280" t="s">
         <v>1791</v>
       </c>
-      <c r="D15" s="483"/>
+      <c r="D15" s="480"/>
     </row>
     <row r="16" spans="1:4" s="271" customFormat="1" ht="38.25">
       <c r="A16" s="279" t="s">
@@ -53040,7 +52890,7 @@
       <c r="C16" s="280" t="s">
         <v>1791</v>
       </c>
-      <c r="D16" s="483"/>
+      <c r="D16" s="480"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C16"/>
@@ -53081,32 +52931,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="254" customFormat="1">
-      <c r="A1" s="484" t="s">
+      <c r="A1" s="481" t="s">
         <v>1794</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
-      <c r="J1" s="484"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="481"/>
+      <c r="J1" s="481"/>
     </row>
     <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="485" t="s">
+      <c r="A2" s="482" t="s">
         <v>1795</v>
       </c>
-      <c r="B2" s="485"/>
-      <c r="C2" s="485"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
       <c r="D2" s="259"/>
       <c r="E2" s="259"/>
-      <c r="F2" s="485" t="s">
+      <c r="F2" s="482" t="s">
         <v>1796</v>
       </c>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
       <c r="I2" s="261"/>
       <c r="J2" s="268"/>
     </row>
@@ -53294,12 +53144,12 @@
       <c r="E9" s="263" t="s">
         <v>1825</v>
       </c>
-      <c r="F9" s="491">
+      <c r="F9" s="488">
         <v>4007106</v>
       </c>
-      <c r="G9" s="492"/>
-      <c r="H9" s="492"/>
-      <c r="I9" s="492"/>
+      <c r="G9" s="489"/>
+      <c r="H9" s="489"/>
+      <c r="I9" s="489"/>
       <c r="J9" s="268"/>
     </row>
     <row r="10" spans="1:10" ht="27">
@@ -53318,10 +53168,10 @@
       <c r="E10" s="263" t="s">
         <v>1809</v>
       </c>
-      <c r="F10" s="491"/>
-      <c r="G10" s="492"/>
-      <c r="H10" s="492"/>
-      <c r="I10" s="492"/>
+      <c r="F10" s="488"/>
+      <c r="G10" s="489"/>
+      <c r="H10" s="489"/>
+      <c r="I10" s="489"/>
       <c r="J10" s="268"/>
     </row>
     <row r="11" spans="1:10" ht="27">
@@ -53340,11 +53190,11 @@
       <c r="E11" s="263" t="s">
         <v>1832</v>
       </c>
-      <c r="F11" s="491">
+      <c r="F11" s="488">
         <v>4007107</v>
       </c>
-      <c r="G11" s="492"/>
-      <c r="H11" s="492"/>
+      <c r="G11" s="489"/>
+      <c r="H11" s="489"/>
       <c r="I11" s="268"/>
       <c r="J11" s="268"/>
     </row>
@@ -53364,14 +53214,14 @@
       <c r="E12" s="263" t="s">
         <v>1809</v>
       </c>
-      <c r="F12" s="491"/>
-      <c r="G12" s="492"/>
-      <c r="H12" s="492"/>
+      <c r="F12" s="488"/>
+      <c r="G12" s="489"/>
+      <c r="H12" s="489"/>
       <c r="I12" s="268"/>
       <c r="J12" s="268"/>
     </row>
     <row r="13" spans="1:10" ht="27">
-      <c r="A13" s="486">
+      <c r="A13" s="483">
         <v>4006110</v>
       </c>
       <c r="B13" s="267" t="s">
@@ -53393,7 +53243,7 @@
       <c r="J13" s="257"/>
     </row>
     <row r="14" spans="1:10" ht="27">
-      <c r="A14" s="487"/>
+      <c r="A14" s="484"/>
       <c r="B14" s="267" t="s">
         <v>1837</v>
       </c>
@@ -53413,7 +53263,7 @@
       <c r="J14" s="257"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="487"/>
+      <c r="A15" s="484"/>
       <c r="B15" s="267" t="s">
         <v>1839</v>
       </c>
@@ -53428,8 +53278,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="487"/>
-      <c r="B16" s="489" t="s">
+      <c r="A16" s="484"/>
+      <c r="B16" s="486" t="s">
         <v>1841</v>
       </c>
       <c r="C16" s="267" t="s">
@@ -53443,8 +53293,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="488"/>
-      <c r="B17" s="490"/>
+      <c r="A17" s="485"/>
+      <c r="B17" s="487"/>
       <c r="C17" s="267" t="s">
         <v>1843</v>
       </c>
